--- a/jadex-applications-micro/EvalHSU_all.xlsx
+++ b/jadex-applications-micro/EvalHSU_all.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t># of Services</t>
   </si>
@@ -38,16 +38,7 @@
     <t># of Platforms</t>
   </si>
   <si>
-    <t>Creation Time (SP)</t>
-  </si>
-  <si>
     <t>Search Time (SP-multi)</t>
-  </si>
-  <si>
-    <t>SP-multi Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname true'</t>
-  </si>
-  <si>
-    <t>Search Time P2P-multi)</t>
   </si>
   <si>
     <t>Creation Time (SP-single)</t>
@@ -56,19 +47,31 @@
     <t>Search Time (SP-single)</t>
   </si>
   <si>
-    <t>SP-single Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname false'</t>
-  </si>
-  <si>
-    <t>P2P-multi Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000 -fixedname true'</t>
-  </si>
-  <si>
-    <t>Creation Time (P2P)</t>
-  </si>
-  <si>
     <t>Search Time (P2P-single)</t>
   </si>
   <si>
-    <t>P2P-single Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000 -fixedname false'</t>
+    <t>Search Time (P2P-multi)</t>
+  </si>
+  <si>
+    <t>SP-single Settings: '-spcnt 3 -platformcnt -10 -personcnt 1000 -multi false'</t>
+  </si>
+  <si>
+    <t>Creation Time (SP-multi)</t>
+  </si>
+  <si>
+    <t>SP-multi Settings: '-spcnt 3 -platformcnt -10 -personcnt 1000 -multi true'</t>
+  </si>
+  <si>
+    <t>Creation Time (P2P-single)</t>
+  </si>
+  <si>
+    <t>P2P-single Settings: '-spcnt 0 -platformcnt -10 -personcnt 1000 -multi false'</t>
+  </si>
+  <si>
+    <t>Creation Time (P2P-multi)</t>
+  </si>
+  <si>
+    <t>P2P-multi Settings: '-spcnt 0 -platformcnt -10 -personcnt 1000 -multi true'</t>
   </si>
 </sst>
 </file>
@@ -139,20 +142,71 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:strRef>
-          <c:f>Tabelle1!$G$2</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>SP-multi Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname true'
-SP-single Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname false'
-P2P-multi Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000 -fixedname true'</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200"/>
+              <a:t>SP:	Superpeer Approach</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200"/>
+              <a:t>P2P:	Peer-to-Peer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+              <a:t> Approach</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+              <a:t>singe:	only one service matches</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+              <a:t>multi:	1...1000 services match</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1200"/>
+          </a:p>
+        </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76613917608125059"/>
+          <c:y val="0.80665024630541871"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -164,8 +218,8 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr algn="l">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -177,7 +231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -196,7 +250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Creation Time (SP)</c:v>
+                  <c:v>Creation Time (SP-multi)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -204,7 +258,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="sysDot"/>
               <a:round/>
@@ -530,304 +584,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>611.41036699999995</c:v>
+                  <c:v>449.75738699999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>552.25617699999998</c:v>
+                  <c:v>374.988202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>551.74103649999995</c:v>
+                  <c:v>315.37552099999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.10242700000003</c:v>
+                  <c:v>303.76074299999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>535.35391149999998</c:v>
+                  <c:v>294.83182199999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>533.77813600000002</c:v>
+                  <c:v>298.52455500000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>534.94068500000003</c:v>
+                  <c:v>292.005515</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>545.78004250000004</c:v>
+                  <c:v>285.95290299999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>546.58391400000005</c:v>
+                  <c:v>305.55844100000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>543.80423800000005</c:v>
+                  <c:v>298.91056500000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>558.56103800000005</c:v>
+                  <c:v>309.79942499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>555.51169449999998</c:v>
+                  <c:v>285.22953699999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>553.01180450000004</c:v>
+                  <c:v>297.194751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>548.11687099999995</c:v>
+                  <c:v>294.08842399999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>559.59029250000003</c:v>
+                  <c:v>306.77732700000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>560.330376</c:v>
+                  <c:v>310.51745399999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>556.16760799999997</c:v>
+                  <c:v>294.36026199999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>566.75108150000005</c:v>
+                  <c:v>322.54343499999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>561.92462850000004</c:v>
+                  <c:v>311.97802999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>565.68927350000001</c:v>
+                  <c:v>287.43310000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>572.90915800000005</c:v>
+                  <c:v>301.685137</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>577.37957300000005</c:v>
+                  <c:v>297.01233300000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>590.32069799999999</c:v>
+                  <c:v>294.99913600000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>585.75980600000003</c:v>
+                  <c:v>313.59301599999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>573.57548250000002</c:v>
+                  <c:v>306.32257299999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>585.8436835</c:v>
+                  <c:v>306.52244100000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>589.619913</c:v>
+                  <c:v>304.43706800000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>586.20192050000003</c:v>
+                  <c:v>316.65150899999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>583.24349299999994</c:v>
+                  <c:v>305.750742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>589.489552</c:v>
+                  <c:v>309.79957100000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>586.80695049999997</c:v>
+                  <c:v>322.00703199999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>598.54476150000005</c:v>
+                  <c:v>315.23897099999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>597.11753050000004</c:v>
+                  <c:v>320.93211500000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>592.9251415</c:v>
+                  <c:v>316.11138099999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>597.82183399999997</c:v>
+                  <c:v>344.71968700000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>619.07515249999994</c:v>
+                  <c:v>318.78195699999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>602.24459300000001</c:v>
+                  <c:v>313.40663799999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>612.43639599999995</c:v>
+                  <c:v>330.30189000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>617.85644100000002</c:v>
+                  <c:v>320.57557800000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>613.57841499999995</c:v>
+                  <c:v>310.05589500000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>611.37942650000002</c:v>
+                  <c:v>325.28691900000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>620.79126050000002</c:v>
+                  <c:v>324.73640999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>618.33492200000001</c:v>
+                  <c:v>325.32832999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>612.38111249999997</c:v>
+                  <c:v>336.96481</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>605.09333500000002</c:v>
+                  <c:v>310.94707499999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>612.01349049999999</c:v>
+                  <c:v>315.25724300000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>621.57518900000002</c:v>
+                  <c:v>323.39114999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>632.88100299999996</c:v>
+                  <c:v>316.04630300000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>624.17171350000001</c:v>
+                  <c:v>332.13208200000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>625.95674150000002</c:v>
+                  <c:v>334.586073</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>647.27414050000004</c:v>
+                  <c:v>342.46365700000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>626.65151400000002</c:v>
+                  <c:v>334.73541</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>627.62783200000001</c:v>
+                  <c:v>324.02629899999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>651.26460899999995</c:v>
+                  <c:v>318.12768699999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>637.91846950000001</c:v>
+                  <c:v>326.64050800000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>638.1168705</c:v>
+                  <c:v>348.235457</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>640.88789450000002</c:v>
+                  <c:v>334.33640700000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>647.54864699999996</c:v>
+                  <c:v>315.903595</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>644.106899</c:v>
+                  <c:v>328.06304599999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>648.1900435</c:v>
+                  <c:v>320.48492599999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>646.84448999999995</c:v>
+                  <c:v>327.82710500000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>650.13197449999996</c:v>
+                  <c:v>347.91983299999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>651.21900449999998</c:v>
+                  <c:v>328.53290399999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>663.2943765</c:v>
+                  <c:v>336.01497599999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>650.85856750000005</c:v>
+                  <c:v>321.20955400000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>647.08834950000005</c:v>
+                  <c:v>323.16086999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>667.14949850000005</c:v>
+                  <c:v>331.42657600000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>665.1600555</c:v>
+                  <c:v>390.08211999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>673.75042150000002</c:v>
+                  <c:v>336.41623600000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>680.2231835</c:v>
+                  <c:v>368.08473700000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>676.59109950000004</c:v>
+                  <c:v>352.68754200000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>677.18762349999997</c:v>
+                  <c:v>359.321956</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>674.90270550000002</c:v>
+                  <c:v>349.06795199999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>684.51851299999998</c:v>
+                  <c:v>404.29556300000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>700.87073899999996</c:v>
+                  <c:v>341.347916</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>669.37092150000001</c:v>
+                  <c:v>339.74812200000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>688.10792549999996</c:v>
+                  <c:v>339.503559</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>680.80665699999997</c:v>
+                  <c:v>336.838144</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>676.84742300000005</c:v>
+                  <c:v>360.31457999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>696.05352249999999</c:v>
+                  <c:v>367.93804</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>702.91707599999995</c:v>
+                  <c:v>340.73209400000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>684.20426699999996</c:v>
+                  <c:v>340.74203599999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>699.03775949999999</c:v>
+                  <c:v>336.304058</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>699.30918699999995</c:v>
+                  <c:v>343.44150000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>700.11408449999999</c:v>
+                  <c:v>333.983566</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>714.44402100000002</c:v>
+                  <c:v>363.59288400000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>782.69345250000003</c:v>
+                  <c:v>330.97020800000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>721.26490200000001</c:v>
+                  <c:v>337.83173599999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>847.65100099999995</c:v>
+                  <c:v>342.313647</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>705.31842500000005</c:v>
+                  <c:v>333.67603600000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>702.35369100000003</c:v>
+                  <c:v>339.60019299999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>718.22728900000004</c:v>
+                  <c:v>373.127363</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>711.02206899999999</c:v>
+                  <c:v>360.71959500000003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>708.52379199999996</c:v>
+                  <c:v>361.76887900000003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>723.96539299999995</c:v>
+                  <c:v>374.896818</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>718.38448549999998</c:v>
+                  <c:v>416.01682899999997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>796.08549049999999</c:v>
+                  <c:v>359.80867799999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>730.79448649999995</c:v>
+                  <c:v>365.92405100000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>739.07881799999996</c:v>
+                  <c:v>385.39007600000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>723.17941150000001</c:v>
+                  <c:v>384.301669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,7 +902,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Creation Time (P2P)</c:v>
+                  <c:v>Creation Time (P2P-single)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -873,187 +927,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>615.60495649999996</c:v>
+                  <c:v>429.79663299999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>563.23894700000005</c:v>
+                  <c:v>346.66915499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>570.134907</c:v>
+                  <c:v>285.73643600000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>549.13410050000005</c:v>
+                  <c:v>285.116625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>563.52371849999997</c:v>
+                  <c:v>267.38797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>555.38778500000001</c:v>
+                  <c:v>277.19698499999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>558.27025449999996</c:v>
+                  <c:v>278.22110700000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>560.78891399999998</c:v>
+                  <c:v>271.27670000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>558.61470799999995</c:v>
+                  <c:v>283.22988900000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>554.73876399999995</c:v>
+                  <c:v>276.05446799999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>570.5993105</c:v>
+                  <c:v>273.84178500000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>579.22017749999998</c:v>
+                  <c:v>267.18214899999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>576.812816</c:v>
+                  <c:v>268.77364299999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>577.83415249999996</c:v>
+                  <c:v>267.44389799999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>590.873378</c:v>
+                  <c:v>281.43016799999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.13329399999998</c:v>
+                  <c:v>267.85859099999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>610.89390749999995</c:v>
+                  <c:v>281.96487000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>615.07720449999999</c:v>
+                  <c:v>297.36655200000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>632.57540849999998</c:v>
+                  <c:v>276.411855</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>634.38917749999996</c:v>
+                  <c:v>276.16855299999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>629.82432749999998</c:v>
+                  <c:v>279.35344800000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>624.74932200000001</c:v>
+                  <c:v>280.99755599999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>644.51939349999998</c:v>
+                  <c:v>285.78168899999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>661.29100349999999</c:v>
+                  <c:v>299.06057600000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>664.38096700000006</c:v>
+                  <c:v>293.40846299999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>683.96803299999999</c:v>
+                  <c:v>287.41491600000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>710.41528000000005</c:v>
+                  <c:v>287.54096600000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>715.74132999999995</c:v>
+                  <c:v>289.12536399999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>702.02698099999998</c:v>
+                  <c:v>283.79010599999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>718.4872795</c:v>
+                  <c:v>292.771524</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>745.84236399999998</c:v>
+                  <c:v>288.48253099999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>759.46594349999998</c:v>
+                  <c:v>313.930812</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>781.98181650000004</c:v>
+                  <c:v>279.92536699999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>797.32355749999999</c:v>
+                  <c:v>295.257835</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>834.00865199999998</c:v>
+                  <c:v>291.35719799999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>813.64880149999999</c:v>
+                  <c:v>276.60160500000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>818.21394550000002</c:v>
+                  <c:v>285.24980199999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>843.07500549999997</c:v>
+                  <c:v>292.582244</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>896.817362</c:v>
+                  <c:v>279.68121400000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>931.95160950000002</c:v>
+                  <c:v>289.27909899999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>991.00535249999996</c:v>
+                  <c:v>283.17548699999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1037.0380525</c:v>
+                  <c:v>296.68978700000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1011.0681135</c:v>
+                  <c:v>292.51288399999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1023.8485224999999</c:v>
+                  <c:v>300.17655200000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1213.9919345000001</c:v>
+                  <c:v>302.60429499999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1211.7216805</c:v>
+                  <c:v>289.66519799999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1298.2287555</c:v>
+                  <c:v>281.01450799999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1318.5384555000001</c:v>
+                  <c:v>281.28663899999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1434.3044215</c:v>
+                  <c:v>301.41667200000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1331.5839874999999</c:v>
+                  <c:v>293.19108599999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1622.9770510000001</c:v>
+                  <c:v>306.20690400000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2004.2133595</c:v>
+                  <c:v>317.13544400000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1949.6592125</c:v>
+                  <c:v>305.42655400000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2387.5397025000002</c:v>
+                  <c:v>305.73933399999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2756.385366</c:v>
+                  <c:v>308.04888599999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2987.7680184999999</c:v>
+                  <c:v>298.24834700000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3826.1516240000001</c:v>
+                  <c:v>313.06881299999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2649.4002489999998</c:v>
+                  <c:v>317.45549699999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3245.9206684999999</c:v>
+                  <c:v>298.19309399999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2760.624973</c:v>
+                  <c:v>296.63180599999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3161.0104845000001</c:v>
+                  <c:v>300.78700700000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,350 +1136,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Search Time (SP-single)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$S$2:$S$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>15.482806500000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.365788999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.128162</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.1004475</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.390425</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.550333500000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.767944999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.3825065</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.0702395</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.2729675</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.334922000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.089523</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.7757900000000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.042524999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.6602385</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.017450500000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.7917740000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30.480973500000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.9024859999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.871105</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.7677244999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.798079</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.1700274999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10.263215499999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.9642200000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.4674829999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.207786</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.057922</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.7480019999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.133661</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.8221270000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7065764999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.12171</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.6762225000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.3314760000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.8412640000000007</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.0784514999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.1843975000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.1528704999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.695872</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.2559574999999992</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.4939514999999997</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.5805410000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.6072290000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.6614855000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.7416235000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.857761</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.6518069999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.8274064999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.7546740000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.8534354999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.4031819999999993</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.9972135</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.1197300000000006</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.6773225000000007</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.7522544999999994</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.6748295000000004</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.8182419999999997</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.2618225000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.53369</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.2178315000000008</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.178091999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.0580685000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.1413595000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.9164159999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.9256544999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.957182</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.9947214999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.1593954999999996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.231249</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.1687810000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.1657014999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.7855420000000004</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.1775789999999997</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.1846174999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.307207</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.4671894999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.3525919999999996</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.2120389999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.2896105000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.2261160000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.3860985000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.4242245000000002</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.4541389999999996</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.3712885000000004</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.8933204999999997</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.8853289999999996</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.4943179999999998</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.3894715</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.7779160000000003</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.5561995</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.4343430000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.6478479999999998</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.569763</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.6350904999999996</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.7359045000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.8296799999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.0133444999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.7640589999999996</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>6.8922939999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9FF-4F62-A8E7-C1D6AE4AA2A2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$1</c:f>
@@ -1440,7 +1152,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1765,304 +1477,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>15.395849999999999</c:v>
+                  <c:v>37.502885124999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.1379865</c:v>
+                  <c:v>13.3355595625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.273261000000002</c:v>
+                  <c:v>12.453841875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0866635</c:v>
+                  <c:v>13.446106500000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.398709499999999</c:v>
+                  <c:v>22.92429125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.2593295</c:v>
+                  <c:v>19.274299687500001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.886502</c:v>
+                  <c:v>14.900776499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.252071000000001</c:v>
+                  <c:v>19.1071870625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.188284000000003</c:v>
+                  <c:v>24.04831025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.9481635</c:v>
+                  <c:v>18.839242250000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.315418999999999</c:v>
+                  <c:v>20.497262812500001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.617494000000001</c:v>
+                  <c:v>25.029668562499999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.647848500000002</c:v>
+                  <c:v>25.974349</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.903292</c:v>
+                  <c:v>26.553166874999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.678642500000002</c:v>
+                  <c:v>28.078314875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>56.408681000000001</c:v>
+                  <c:v>28.0614699375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62.127135500000001</c:v>
+                  <c:v>41.589767000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.0504435</c:v>
+                  <c:v>37.905663812500002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.468362999999997</c:v>
+                  <c:v>39.282597250000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.185350999999997</c:v>
+                  <c:v>40.143088874999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.592931999999998</c:v>
+                  <c:v>48.220841499999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.223696500000003</c:v>
+                  <c:v>59.350356499999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>57.3024415</c:v>
+                  <c:v>58.916325562499999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59.933572499999997</c:v>
+                  <c:v>50.820463125000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75.596598</c:v>
+                  <c:v>55.713653999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>70.216291499999997</c:v>
+                  <c:v>47.155551062500003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>71.165188499999999</c:v>
+                  <c:v>52.365352312500001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>80.111298500000004</c:v>
+                  <c:v>43.7212826875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.521298999999999</c:v>
+                  <c:v>67.224666999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>83.600263499999997</c:v>
+                  <c:v>67.442681375000006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>75.297895499999996</c:v>
+                  <c:v>88.240076000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84.830412499999994</c:v>
+                  <c:v>56.569288374999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>87.624312000000003</c:v>
+                  <c:v>61.6818318125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81.766405500000005</c:v>
+                  <c:v>64.668743375000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>86.385805000000005</c:v>
+                  <c:v>84.028643125000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.952929499999996</c:v>
+                  <c:v>82.001918937499994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>97.984896000000006</c:v>
+                  <c:v>82.217000624999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>85.056382499999998</c:v>
+                  <c:v>67.942039500000007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100.89786599999999</c:v>
+                  <c:v>83.159499812500002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82.525405000000006</c:v>
+                  <c:v>81.100368500000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>72.153824</c:v>
+                  <c:v>86.190219562500005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>74.340641000000005</c:v>
+                  <c:v>92.9567694375</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>93.657892500000003</c:v>
+                  <c:v>82.733148999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88.258816499999995</c:v>
+                  <c:v>85.016251874999995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100.7543075</c:v>
+                  <c:v>95.447805500000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>87.7592195</c:v>
+                  <c:v>98.793760937499997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100.44886</c:v>
+                  <c:v>97.029335875000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>119.8960335</c:v>
+                  <c:v>87.054872250000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>93.101400499999997</c:v>
+                  <c:v>85.069609937500005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>126.209546</c:v>
+                  <c:v>102.3099634375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>97.418578999999994</c:v>
+                  <c:v>105.85496206249999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>103.842804</c:v>
+                  <c:v>100.9396654375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.840237500000001</c:v>
+                  <c:v>99.421317812500007</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>102.815016</c:v>
+                  <c:v>105.7759056875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>101.5370625</c:v>
+                  <c:v>116.57106706250001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>101.846763</c:v>
+                  <c:v>131.12563056249999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114.801232</c:v>
+                  <c:v>119.117294125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>129.39277100000001</c:v>
+                  <c:v>109.0077764375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>136.59197900000001</c:v>
+                  <c:v>120.95789768749999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>141.67270350000001</c:v>
+                  <c:v>122.21944499999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>123.3393945</c:v>
+                  <c:v>115.74078287499999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>121.8843025</c:v>
+                  <c:v>127.90945000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>128.13197450000001</c:v>
+                  <c:v>122.3688694375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>147.882249</c:v>
+                  <c:v>124.9788840625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>123.013418</c:v>
+                  <c:v>132.8650355625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>134.34064050000001</c:v>
+                  <c:v>122.1891641875</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>135.7191875</c:v>
+                  <c:v>128.2715548125</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>136.65459300000001</c:v>
+                  <c:v>123.52263781249999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>136.78275550000001</c:v>
+                  <c:v>133.43514675</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>143.73399800000001</c:v>
+                  <c:v>134.45096512500001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>142.73231150000001</c:v>
+                  <c:v>143.35531756250001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>143.355378</c:v>
+                  <c:v>140.9296273125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>156.68245450000001</c:v>
+                  <c:v>150.70997843750001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>153.38837150000001</c:v>
+                  <c:v>148.1080839375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>152.1409195</c:v>
+                  <c:v>147.28789943749999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>157.753208</c:v>
+                  <c:v>167.31164899999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>161.91729599999999</c:v>
+                  <c:v>151.70820018750001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>164.01319749999999</c:v>
+                  <c:v>158.461552625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>162.08182450000001</c:v>
+                  <c:v>161.9273665625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>171.80101149999999</c:v>
+                  <c:v>175.23612800000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>190.54666800000001</c:v>
+                  <c:v>170.19488737500001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>174.431557</c:v>
+                  <c:v>184.77216150000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>204.8013785</c:v>
+                  <c:v>200.84318475000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>189.69924499999999</c:v>
+                  <c:v>169.85409999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>183.19084899999999</c:v>
+                  <c:v>177.13164756250001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>195.44262800000001</c:v>
+                  <c:v>191.22879137499999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>198.50766150000001</c:v>
+                  <c:v>185.20093175</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>193.66038599999999</c:v>
+                  <c:v>184.66566556250001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>370.09898099999998</c:v>
+                  <c:v>178.05436893749999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>197.33103650000001</c:v>
+                  <c:v>176.97943699999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>201.15507049999999</c:v>
+                  <c:v>182.4947775</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>203.4402815</c:v>
+                  <c:v>191.92169387499999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>210.98438350000001</c:v>
+                  <c:v>191.19431306249999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>224.8183885</c:v>
+                  <c:v>188.1835176875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>215.79690600000001</c:v>
+                  <c:v>205.10815887499999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>227.93679900000001</c:v>
+                  <c:v>223.59074025000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>235.33147550000001</c:v>
+                  <c:v>198.25058343750001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>249.94735750000001</c:v>
+                  <c:v>208.20697393750001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>233.977271</c:v>
+                  <c:v>215.9734685</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>239.0365865</c:v>
+                  <c:v>209.81691549999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,273 +1787,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Search Time (P2P-single)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$Z$2:$Z$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>62.538308999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62.899478999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.466676499999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.172080000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.915976499999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58.420119</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.612508499999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.686194</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.638243000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>66.875431000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68.273187500000006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>69.707162999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>67.804824499999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.066060500000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>71.918029000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78.021556000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76.223770500000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83.064154000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.525258500000007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85.964807500000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>90.848010000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>91.065473999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88.643448500000005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>90.640809500000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>105.19231600000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>102.7721975</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.224357</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>104.9477235</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>98.678788499999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>105.9758045</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>103.33704849999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>109.330303</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>103.19041</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>117.0223625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>114.5441745</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>111.66815699999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>109.554513</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>111.9360655</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>126.527458</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>128.78011599999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>132.0390055</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>144.82132150000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>149.94119800000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>146.605323</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>167.33690150000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>172.78275500000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>188.44973949999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>197.52049299999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>227.2706215</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>205.80614399999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>236.62614600000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>230.54740100000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>257.72519949999997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>303.52034600000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>305.16592100000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>324.40046899999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>337.965687</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>299.92902700000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>342.51162149999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>349.26504849999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>380.88129650000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>400.43272949999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>454.35471749999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>477.33206300000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>544.00806499999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>747.84984250000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>853.21856400000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>641.98973550000005</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>793.56111150000004</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>905.37488050000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>839.49527049999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>909.04934400000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-83B4-479C-BDAF-3117EF850527}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Search Time P2P-multi)</c:v>
+                  <c:v>Search Time (P2P-multi)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2674,184 +2128,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>64.278172499999997</c:v>
+                  <c:v>47.416328937499998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.851089000000002</c:v>
+                  <c:v>28.487600687499999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.938412</c:v>
+                  <c:v>34.308168625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.208225999999996</c:v>
+                  <c:v>47.758784312499998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.427524000000005</c:v>
+                  <c:v>31.558774437499999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.315639000000004</c:v>
+                  <c:v>32.962725812499997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.792946999999998</c:v>
+                  <c:v>36.263040187500003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.230735500000002</c:v>
+                  <c:v>39.606466124999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.503996000000001</c:v>
+                  <c:v>48.356426937499997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.373341000000003</c:v>
+                  <c:v>51.320334625000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.450839000000002</c:v>
+                  <c:v>50.797166062499997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.371874499999997</c:v>
+                  <c:v>54.482937249999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.648435000000006</c:v>
+                  <c:v>54.88536775</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.9748515</c:v>
+                  <c:v>61.2728943125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.049783500000004</c:v>
+                  <c:v>58.019320874999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80.022875499999998</c:v>
+                  <c:v>84.059473812500002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>77.847936000000004</c:v>
+                  <c:v>65.066683062500005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.610235500000002</c:v>
+                  <c:v>70.546518625000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>88.709875499999995</c:v>
+                  <c:v>90.371408312499995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91.615514000000005</c:v>
+                  <c:v>78.5443900625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97.535302999999999</c:v>
+                  <c:v>82.937177875000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95.220324500000004</c:v>
+                  <c:v>83.102072500000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>104.44959299999999</c:v>
+                  <c:v>95.972770437500003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>109.4679965</c:v>
+                  <c:v>96.517623187500007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114.452966</c:v>
+                  <c:v>98.569642625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>118.9351125</c:v>
+                  <c:v>111.314689875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>114.3473865</c:v>
+                  <c:v>117.512833</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>120.7092895</c:v>
+                  <c:v>119.4963723125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>122.481854</c:v>
+                  <c:v>122.1085683125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>134.23330150000001</c:v>
+                  <c:v>122.42527025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>123.02353549999999</c:v>
+                  <c:v>141.91635618750001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>130.96121400000001</c:v>
+                  <c:v>146.9866311875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>141.62680599999999</c:v>
+                  <c:v>153.03936418750001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>144.65987250000001</c:v>
+                  <c:v>147.99405437499999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>142.85534150000001</c:v>
+                  <c:v>144.722224625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>145.72871900000001</c:v>
+                  <c:v>156.79704325</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>156.694332</c:v>
+                  <c:v>168.14693725000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>159.17970550000001</c:v>
+                  <c:v>162.33965843749999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>166.4538455</c:v>
+                  <c:v>159.94122437499999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>186.04912400000001</c:v>
+                  <c:v>160.47315474999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>178.157636</c:v>
+                  <c:v>200.28088199999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>184.21174550000001</c:v>
+                  <c:v>169.74261831250001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>186.06979949999999</c:v>
+                  <c:v>179.395009375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>197.09656100000001</c:v>
+                  <c:v>183.0936299375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>206.73011249999999</c:v>
+                  <c:v>190.492154</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>211.9722855</c:v>
+                  <c:v>190.11611843750001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>219.58823949999999</c:v>
+                  <c:v>195.87156081250001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>247.545861</c:v>
+                  <c:v>203.055663125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>241.10506599999999</c:v>
+                  <c:v>217.30690531249999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>232.71926099999999</c:v>
+                  <c:v>214.20975824999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>240.09091549999999</c:v>
+                  <c:v>227.06537068750001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>274.97177199999999</c:v>
+                  <c:v>225.07706575</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>295.83825849999999</c:v>
+                  <c:v>250.6457949375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>312.02052950000001</c:v>
+                  <c:v>258.26149037499999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>342.873085</c:v>
+                  <c:v>255.34912593749999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>365.44218749999999</c:v>
+                  <c:v>258.81547137500002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>370.66867050000002</c:v>
+                  <c:v>265.46782668750001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>355.92609449999998</c:v>
+                  <c:v>276.20878699999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>404.02155599999998</c:v>
+                  <c:v>285.31953287499999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>431.29906849999998</c:v>
+                  <c:v>288.67148225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,6 +2314,594 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F069-40C4-9A60-586D9B71F670}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Time (SP-single)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$S$2:$S$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.9678478124999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7481286875000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2800773750000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8194862499999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6603110000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4199887499999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6823983125000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7328051875000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9936930625000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0069271874999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9873143124999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0943421249999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2459295624999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2909842500000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0090903750000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1964391250000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2972529374999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3182769375000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1645263750000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.374091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8464313125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7833581875000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3790768125000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7745236875000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9628801249999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4541370000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9703222499999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3671804375000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.516255187500001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.155872562500001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4381895</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.1516221875000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7227602500000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8622496875000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3880763749999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3838239374999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.4551267499999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.8829439375000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.330354249999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5528421874999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1109483750000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3240321875000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5312503749999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8915408749999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.03273525</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.2320348125000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.2119088749999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.4474282499999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.7675210000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.0046533750000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.7251245624999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1233940625000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.3231153124999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.5339084999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.6304512500000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.1165573750000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.4180822500000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.4895861250000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.0610547500000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.2379921874999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.7618210000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5861113749999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.7010212500000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.290120312499999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.1744055000000007</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.5796040624999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.9552919375000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.1699696875000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.6947703750000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9746290000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.7173893749999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.9934902500000007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.7102948125000008</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.8922004374999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.8609846250000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.5234229374999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.5138738125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.8067286874999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.4037113750000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3138041249999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.2816348125000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0296008749999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.1157688749999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.1742594374999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.8309609375000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.1613005625000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.0750040624999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.7244465624999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.8859136875000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.2612337500000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.4108970000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.77113225</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.6309096875</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.5310118749999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.1417244374999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.4608636874999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.9777269999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.4889815000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.9179905000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.4722464999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9FF-4F62-A8E7-C1D6AE4AA2A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Time (P2P-single)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Z$2:$Z$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>37.702514749999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.710693375000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.274717437500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.755414312500001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.05881325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.349816000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.097377874999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.225118875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.617302625000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.542791375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.103810375000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.263572625000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.007541562500002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.386707999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.522203562500003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.600434562499998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.505962187500003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.263256937500003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.024327249999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.284517937499999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.815070374999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.332518687499999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.637050937500007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.343076062500003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74.935163937499993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.746643187499998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.263010312500001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.747007374999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83.785040312500001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78.990940312500001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94.4744938125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>112.2131241875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.702040437500003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96.583647124999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>101.3155359375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107.0338236875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108.51800475</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>109.558531625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>121.141452125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>124.782168875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>128.6483785625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>135.36085556250001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>145.954334375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>142.51130431249999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>144.38952075</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>149.63880437500001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>151.01857874999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>163.28257912500001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>167.5204435</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>162.3021556875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>176.68507893750001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>179.78171281249999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>195.06204418749999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>200.81985087499999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>202.61928581250001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>211.18028487500001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>210.35432643749999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>218.14782081249999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>223.424965625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>223.96151506250001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>224.50389337499999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>236.84847149999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>243.1200255</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>250.30262475000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>255.29402668750001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>270.08365125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>273.54543262499999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>271.39971150000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83B4-479C-BDAF-3117EF850527}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2890,7 +2932,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2923,7 +2965,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2935,7 +2977,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2961,7 +3003,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2973,7 +3015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="496078704"/>
@@ -3010,13 +3052,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3024,20 +3080,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>Time for creating 1000 Services (Seconds)</a:t>
                 </a:r>
+                <a:endParaRPr lang="de-DE" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.893939393939394E-2"/>
-              <c:y val="0.33629642240665869"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3050,20 +3104,34 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3083,7 +3151,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3095,7 +3163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="496077064"/>
@@ -3108,7 +3176,6 @@
       <c:valAx>
         <c:axId val="238226800"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3120,7 +3187,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3133,12 +3200,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time for service</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> search (Seconds)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time for service search (Seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3157,7 +3220,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3169,12 +3232,12 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3189,7 +3252,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3201,7 +3264,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="181700192"/>
@@ -3219,7 +3282,7 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="238226800"/>
@@ -3253,7 +3316,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3265,7 +3328,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3293,9 +3356,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3347,7 +3410,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3455,11 +3518,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3470,11 +3528,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3506,9 +3559,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3564,22 +3614,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3749,6 +3800,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3817,19 +3879,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3866,16 +3929,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>310515</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165734</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>645795</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>118109</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4162,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:N127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,16 +4242,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -4200,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -4221,16 +4284,16 @@
         <v>0</v>
       </c>
       <c r="R1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
         <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
@@ -4245,13 +4308,13 @@
         <v>12</v>
       </c>
       <c r="Z1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
         <v>13</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -4265,20 +4328,14 @@
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>611.41036699999995</v>
+        <v>449.75738699999999</v>
       </c>
       <c r="E2">
-        <v>15.395849999999999</v>
+        <v>37.502885124999999</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2" t="str">
-        <f>G1&amp;CHAR(10)&amp;U1&amp;CHAR(10)&amp;N1</f>
-        <v>SP-multi Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname true'
-SP-single Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000 -fixedname false'
-P2P-multi Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000 -fixedname true'</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -4289,13 +4346,13 @@
         <v>10000</v>
       </c>
       <c r="K2">
-        <v>615.5178535</v>
+        <v>417.62219499999998</v>
       </c>
       <c r="L2">
-        <v>64.278172499999997</v>
+        <v>47.416328937499998</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -4307,10 +4364,10 @@
         <v>10000</v>
       </c>
       <c r="R2">
-        <v>645.26944800000001</v>
+        <v>474.88813699999997</v>
       </c>
       <c r="S2">
-        <v>15.482806500000001</v>
+        <v>5.9678478124999996</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -4325,10 +4382,10 @@
         <v>10000</v>
       </c>
       <c r="Y2">
-        <v>615.60495649999996</v>
+        <v>429.79663299999999</v>
       </c>
       <c r="Z2">
-        <v>62.538308999999998</v>
+        <v>37.702514749999999</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -4345,10 +4402,10 @@
         <v>20000</v>
       </c>
       <c r="D3">
-        <v>552.25617699999998</v>
+        <v>374.988202</v>
       </c>
       <c r="E3">
-        <v>18.1379865</v>
+        <v>13.3355595625</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -4363,13 +4420,13 @@
         <v>20000</v>
       </c>
       <c r="K3">
-        <v>563.89617999999996</v>
+        <v>322.49261000000001</v>
       </c>
       <c r="L3">
-        <v>54.851089000000002</v>
+        <v>28.487600687499999</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -4381,10 +4438,10 @@
         <v>20000</v>
       </c>
       <c r="R3">
-        <v>529.5121345</v>
+        <v>371.95493099999999</v>
       </c>
       <c r="S3">
-        <v>13.365788999999999</v>
+        <v>5.7481286875000004</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -4399,10 +4456,10 @@
         <v>20000</v>
       </c>
       <c r="Y3">
-        <v>563.23894700000005</v>
+        <v>346.66915499999999</v>
       </c>
       <c r="Z3">
-        <v>62.899478999999999</v>
+        <v>25.710693375000002</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -4419,10 +4476,10 @@
         <v>30000</v>
       </c>
       <c r="D4">
-        <v>551.74103649999995</v>
+        <v>315.37552099999999</v>
       </c>
       <c r="E4">
-        <v>23.273261000000002</v>
+        <v>12.453841875</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -4437,13 +4494,13 @@
         <v>30000</v>
       </c>
       <c r="K4">
-        <v>551.95908799999995</v>
+        <v>292.256531</v>
       </c>
       <c r="L4">
-        <v>61.938412</v>
+        <v>34.308168625</v>
       </c>
       <c r="M4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -4455,10 +4512,10 @@
         <v>30000</v>
       </c>
       <c r="R4">
-        <v>532.645355</v>
+        <v>327.34308099999998</v>
       </c>
       <c r="S4">
-        <v>12.128162</v>
+        <v>6.2800773750000003</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -4473,10 +4530,10 @@
         <v>30000</v>
       </c>
       <c r="Y4">
-        <v>570.134907</v>
+        <v>285.73643600000003</v>
       </c>
       <c r="Z4">
-        <v>51.466676499999998</v>
+        <v>32.274717437500001</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -4493,10 +4550,10 @@
         <v>40000</v>
       </c>
       <c r="D5">
-        <v>537.10242700000003</v>
+        <v>303.76074299999999</v>
       </c>
       <c r="E5">
-        <v>24.0866635</v>
+        <v>13.446106500000001</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -4511,13 +4568,13 @@
         <v>40000</v>
       </c>
       <c r="K5">
-        <v>561.08922900000005</v>
+        <v>274.63445200000001</v>
       </c>
       <c r="L5">
-        <v>64.208225999999996</v>
+        <v>47.758784312499998</v>
       </c>
       <c r="M5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -4529,10 +4586,10 @@
         <v>40000</v>
       </c>
       <c r="R5">
-        <v>544.97001250000005</v>
+        <v>313.40352999999999</v>
       </c>
       <c r="S5">
-        <v>14.1004475</v>
+        <v>6.8194862499999997</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -4547,10 +4604,10 @@
         <v>40000</v>
       </c>
       <c r="Y5">
-        <v>549.13410050000005</v>
+        <v>285.116625</v>
       </c>
       <c r="Z5">
-        <v>53.172080000000001</v>
+        <v>38.755414312500001</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -4567,10 +4624,10 @@
         <v>50000</v>
       </c>
       <c r="D6">
-        <v>535.35391149999998</v>
+        <v>294.83182199999999</v>
       </c>
       <c r="E6">
-        <v>28.398709499999999</v>
+        <v>22.92429125</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -4585,13 +4642,13 @@
         <v>50000</v>
       </c>
       <c r="K6">
-        <v>556.04399149999995</v>
+        <v>275.750809</v>
       </c>
       <c r="L6">
-        <v>65.427524000000005</v>
+        <v>31.558774437499999</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -4603,10 +4660,10 @@
         <v>50000</v>
       </c>
       <c r="R6">
-        <v>532.38859200000002</v>
+        <v>304.48930100000001</v>
       </c>
       <c r="S6">
-        <v>13.390425</v>
+        <v>4.6603110000000001</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -4621,10 +4678,10 @@
         <v>50000</v>
       </c>
       <c r="Y6">
-        <v>563.52371849999997</v>
+        <v>267.38797</v>
       </c>
       <c r="Z6">
-        <v>69.915976499999999</v>
+        <v>24.05881325</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -4641,10 +4698,10 @@
         <v>60000</v>
       </c>
       <c r="D7">
-        <v>533.77813600000002</v>
+        <v>298.52455500000002</v>
       </c>
       <c r="E7">
-        <v>33.2593295</v>
+        <v>19.274299687500001</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -4659,13 +4716,13 @@
         <v>60000</v>
       </c>
       <c r="K7">
-        <v>555.27634</v>
+        <v>286.79536999999999</v>
       </c>
       <c r="L7">
-        <v>65.315639000000004</v>
+        <v>32.962725812499997</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -4677,10 +4734,10 @@
         <v>60000</v>
       </c>
       <c r="R7">
-        <v>525.73282500000005</v>
+        <v>293.44353799999999</v>
       </c>
       <c r="S7">
-        <v>10.550333500000001</v>
+        <v>5.4199887499999999</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -4695,10 +4752,10 @@
         <v>60000</v>
       </c>
       <c r="Y7">
-        <v>555.38778500000001</v>
+        <v>277.19698499999998</v>
       </c>
       <c r="Z7">
-        <v>58.420119</v>
+        <v>27.349816000000001</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -4715,10 +4772,10 @@
         <v>70000</v>
       </c>
       <c r="D8">
-        <v>534.94068500000003</v>
+        <v>292.005515</v>
       </c>
       <c r="E8">
-        <v>35.886502</v>
+        <v>14.900776499999999</v>
       </c>
       <c r="F8">
         <v>70</v>
@@ -4733,13 +4790,13 @@
         <v>70000</v>
       </c>
       <c r="K8">
-        <v>558.03387350000003</v>
+        <v>272.69501500000001</v>
       </c>
       <c r="L8">
-        <v>61.792946999999998</v>
+        <v>36.263040187500003</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -4751,10 +4808,10 @@
         <v>70000</v>
       </c>
       <c r="R8">
-        <v>536.42231849999996</v>
+        <v>311.43426599999998</v>
       </c>
       <c r="S8">
-        <v>10.767944999999999</v>
+        <v>4.6823983125000002</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -4769,10 +4826,10 @@
         <v>70000</v>
       </c>
       <c r="Y8">
-        <v>558.27025449999996</v>
+        <v>278.22110700000002</v>
       </c>
       <c r="Z8">
-        <v>58.612508499999997</v>
+        <v>28.097377874999999</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -4789,10 +4846,10 @@
         <v>80000</v>
       </c>
       <c r="D9">
-        <v>545.78004250000004</v>
+        <v>285.95290299999999</v>
       </c>
       <c r="E9">
-        <v>40.252071000000001</v>
+        <v>19.1071870625</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -4807,13 +4864,13 @@
         <v>80000</v>
       </c>
       <c r="K9">
-        <v>553.49057849999997</v>
+        <v>284.12379600000003</v>
       </c>
       <c r="L9">
-        <v>57.230735500000002</v>
+        <v>39.606466124999997</v>
       </c>
       <c r="M9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O9">
         <v>3</v>
@@ -4825,10 +4882,10 @@
         <v>80000</v>
       </c>
       <c r="R9">
-        <v>530.45281950000003</v>
+        <v>287.44004999999999</v>
       </c>
       <c r="S9">
-        <v>11.3825065</v>
+        <v>4.7328051875000003</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -4843,10 +4900,10 @@
         <v>80000</v>
       </c>
       <c r="Y9">
-        <v>560.78891399999998</v>
+        <v>271.27670000000001</v>
       </c>
       <c r="Z9">
-        <v>63.686194</v>
+        <v>26.225118875</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -4863,10 +4920,10 @@
         <v>90000</v>
       </c>
       <c r="D10">
-        <v>546.58391400000005</v>
+        <v>305.55844100000002</v>
       </c>
       <c r="E10">
-        <v>50.188284000000003</v>
+        <v>24.04831025</v>
       </c>
       <c r="F10">
         <v>90</v>
@@ -4881,13 +4938,13 @@
         <v>90000</v>
       </c>
       <c r="K10">
-        <v>554.87777700000004</v>
+        <v>271.28370899999999</v>
       </c>
       <c r="L10">
-        <v>66.503996000000001</v>
+        <v>48.356426937499997</v>
       </c>
       <c r="M10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -4899,10 +4956,10 @@
         <v>90000</v>
       </c>
       <c r="R10">
-        <v>548.11276499999997</v>
+        <v>309.01842900000003</v>
       </c>
       <c r="S10">
-        <v>20.0702395</v>
+        <v>4.9936930625000002</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -4917,10 +4974,10 @@
         <v>90000</v>
       </c>
       <c r="Y10">
-        <v>558.61470799999995</v>
+        <v>283.22988900000001</v>
       </c>
       <c r="Z10">
-        <v>67.638243000000003</v>
+        <v>27.617302625000001</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -4937,10 +4994,10 @@
         <v>100000</v>
       </c>
       <c r="D11">
-        <v>543.80423800000005</v>
+        <v>298.91056500000002</v>
       </c>
       <c r="E11">
-        <v>44.9481635</v>
+        <v>18.839242250000002</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -4955,13 +5012,13 @@
         <v>100000</v>
       </c>
       <c r="K11">
-        <v>556.58156750000001</v>
+        <v>276.408072</v>
       </c>
       <c r="L11">
-        <v>62.373341000000003</v>
+        <v>51.320334625000001</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -4973,10 +5030,10 @@
         <v>100000</v>
       </c>
       <c r="R11">
-        <v>545.84588250000002</v>
+        <v>296.81384300000002</v>
       </c>
       <c r="S11">
-        <v>11.2729675</v>
+        <v>5.0069271874999997</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -4991,10 +5048,10 @@
         <v>100000</v>
       </c>
       <c r="Y11">
-        <v>554.73876399999995</v>
+        <v>276.05446799999999</v>
       </c>
       <c r="Z11">
-        <v>66.875431000000006</v>
+        <v>29.542791375</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -5011,10 +5068,10 @@
         <v>110000</v>
       </c>
       <c r="D12">
-        <v>558.56103800000005</v>
+        <v>309.79942499999999</v>
       </c>
       <c r="E12">
-        <v>46.315418999999999</v>
+        <v>20.497262812500001</v>
       </c>
       <c r="F12">
         <v>110</v>
@@ -5029,13 +5086,13 @@
         <v>110000</v>
       </c>
       <c r="K12">
-        <v>579.67167700000005</v>
+        <v>284.13869499999998</v>
       </c>
       <c r="L12">
-        <v>67.450839000000002</v>
+        <v>50.797166062499997</v>
       </c>
       <c r="M12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O12">
         <v>3</v>
@@ -5047,10 +5104,10 @@
         <v>110000</v>
       </c>
       <c r="R12">
-        <v>543.93107999999995</v>
+        <v>324.30951700000003</v>
       </c>
       <c r="S12">
-        <v>14.334922000000001</v>
+        <v>4.9873143124999997</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -5065,10 +5122,10 @@
         <v>110000</v>
       </c>
       <c r="Y12">
-        <v>570.5993105</v>
+        <v>273.84178500000002</v>
       </c>
       <c r="Z12">
-        <v>68.273187500000006</v>
+        <v>32.103810375000002</v>
       </c>
       <c r="AA12">
         <v>1</v>
@@ -5085,10 +5142,10 @@
         <v>120000</v>
       </c>
       <c r="D13">
-        <v>555.51169449999998</v>
+        <v>285.22953699999999</v>
       </c>
       <c r="E13">
-        <v>50.617494000000001</v>
+        <v>25.029668562499999</v>
       </c>
       <c r="F13">
         <v>120</v>
@@ -5103,13 +5160,13 @@
         <v>120000</v>
       </c>
       <c r="K13">
-        <v>574.38785849999999</v>
+        <v>275.311804</v>
       </c>
       <c r="L13">
-        <v>62.371874499999997</v>
+        <v>54.482937249999999</v>
       </c>
       <c r="M13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -5121,10 +5178,10 @@
         <v>120000</v>
       </c>
       <c r="R13">
-        <v>543.5133075</v>
+        <v>304.85431299999999</v>
       </c>
       <c r="S13">
-        <v>11.089523</v>
+        <v>4.0943421249999998</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -5139,10 +5196,10 @@
         <v>120000</v>
       </c>
       <c r="Y13">
-        <v>579.22017749999998</v>
+        <v>267.18214899999998</v>
       </c>
       <c r="Z13">
-        <v>69.707162999999994</v>
+        <v>33.263572625000002</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -5159,10 +5216,10 @@
         <v>130000</v>
       </c>
       <c r="D14">
-        <v>553.01180450000004</v>
+        <v>297.194751</v>
       </c>
       <c r="E14">
-        <v>54.647848500000002</v>
+        <v>25.974349</v>
       </c>
       <c r="F14">
         <v>130</v>
@@ -5177,13 +5234,13 @@
         <v>130000</v>
       </c>
       <c r="K14">
-        <v>586.61676050000005</v>
+        <v>273.20907</v>
       </c>
       <c r="L14">
-        <v>70.648435000000006</v>
+        <v>54.88536775</v>
       </c>
       <c r="M14">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -5195,10 +5252,10 @@
         <v>130000</v>
       </c>
       <c r="R14">
-        <v>553.68340750000004</v>
+        <v>314.39650499999999</v>
       </c>
       <c r="S14">
-        <v>9.7757900000000006</v>
+        <v>4.2459295624999998</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -5213,10 +5270,10 @@
         <v>130000</v>
       </c>
       <c r="Y14">
-        <v>576.812816</v>
+        <v>268.77364299999999</v>
       </c>
       <c r="Z14">
-        <v>67.804824499999995</v>
+        <v>35.007541562500002</v>
       </c>
       <c r="AA14">
         <v>1</v>
@@ -5233,10 +5290,10 @@
         <v>140000</v>
       </c>
       <c r="D15">
-        <v>548.11687099999995</v>
+        <v>294.08842399999997</v>
       </c>
       <c r="E15">
-        <v>48.903292</v>
+        <v>26.553166874999999</v>
       </c>
       <c r="F15">
         <v>140</v>
@@ -5251,13 +5308,13 @@
         <v>140000</v>
       </c>
       <c r="K15">
-        <v>574.78612799999996</v>
+        <v>304.61699399999998</v>
       </c>
       <c r="L15">
-        <v>72.9748515</v>
+        <v>61.2728943125</v>
       </c>
       <c r="M15">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O15">
         <v>3</v>
@@ -5269,10 +5326,10 @@
         <v>140000</v>
       </c>
       <c r="R15">
-        <v>545.67724899999996</v>
+        <v>301.43245000000002</v>
       </c>
       <c r="S15">
-        <v>10.042524999999999</v>
+        <v>4.2909842500000002</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -5287,10 +5344,10 @@
         <v>140000</v>
       </c>
       <c r="Y15">
-        <v>577.83415249999996</v>
+        <v>267.44389799999999</v>
       </c>
       <c r="Z15">
-        <v>71.066060500000006</v>
+        <v>47.386707999999999</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -5307,10 +5364,10 @@
         <v>150000</v>
       </c>
       <c r="D16">
-        <v>559.59029250000003</v>
+        <v>306.77732700000001</v>
       </c>
       <c r="E16">
-        <v>54.678642500000002</v>
+        <v>28.078314875</v>
       </c>
       <c r="F16">
         <v>150</v>
@@ -5325,13 +5382,13 @@
         <v>150000</v>
       </c>
       <c r="K16">
-        <v>599.20580700000005</v>
+        <v>275.86055399999998</v>
       </c>
       <c r="L16">
-        <v>79.049783500000004</v>
+        <v>58.019320874999998</v>
       </c>
       <c r="M16">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O16">
         <v>3</v>
@@ -5343,10 +5400,10 @@
         <v>150000</v>
       </c>
       <c r="R16">
-        <v>551.53457000000003</v>
+        <v>299.24842000000001</v>
       </c>
       <c r="S16">
-        <v>11.6602385</v>
+        <v>4.0090903750000004</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -5361,10 +5418,10 @@
         <v>150000</v>
       </c>
       <c r="Y16">
-        <v>590.873378</v>
+        <v>281.43016799999998</v>
       </c>
       <c r="Z16">
-        <v>71.918029000000004</v>
+        <v>41.522203562500003</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -5381,10 +5438,10 @@
         <v>160000</v>
       </c>
       <c r="D17">
-        <v>560.330376</v>
+        <v>310.51745399999999</v>
       </c>
       <c r="E17">
-        <v>56.408681000000001</v>
+        <v>28.0614699375</v>
       </c>
       <c r="F17">
         <v>160</v>
@@ -5399,13 +5456,13 @@
         <v>160000</v>
       </c>
       <c r="K17">
-        <v>599.400396</v>
+        <v>271.69687699999997</v>
       </c>
       <c r="L17">
-        <v>80.022875499999998</v>
+        <v>84.059473812500002</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O17">
         <v>3</v>
@@ -5417,10 +5474,10 @@
         <v>160000</v>
       </c>
       <c r="R17">
-        <v>547.60392999999999</v>
+        <v>312.02249</v>
       </c>
       <c r="S17">
-        <v>10.017450500000001</v>
+        <v>4.1964391250000004</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -5435,10 +5492,10 @@
         <v>160000</v>
       </c>
       <c r="Y17">
-        <v>592.13329399999998</v>
+        <v>267.85859099999999</v>
       </c>
       <c r="Z17">
-        <v>78.021556000000004</v>
+        <v>43.600434562499998</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -5455,10 +5512,10 @@
         <v>170000</v>
       </c>
       <c r="D18">
-        <v>556.16760799999997</v>
+        <v>294.36026199999998</v>
       </c>
       <c r="E18">
-        <v>62.127135500000001</v>
+        <v>41.589767000000002</v>
       </c>
       <c r="F18">
         <v>170</v>
@@ -5473,13 +5530,13 @@
         <v>170000</v>
       </c>
       <c r="K18">
-        <v>607.47474199999999</v>
+        <v>276.77091300000001</v>
       </c>
       <c r="L18">
-        <v>77.847936000000004</v>
+        <v>65.066683062500005</v>
       </c>
       <c r="M18">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O18">
         <v>3</v>
@@ -5491,10 +5548,10 @@
         <v>170000</v>
       </c>
       <c r="R18">
-        <v>552.00439900000003</v>
+        <v>309.43485299999998</v>
       </c>
       <c r="S18">
-        <v>9.7917740000000002</v>
+        <v>4.2972529374999997</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -5509,10 +5566,10 @@
         <v>170000</v>
       </c>
       <c r="Y18">
-        <v>610.89390749999995</v>
+        <v>281.96487000000002</v>
       </c>
       <c r="Z18">
-        <v>76.223770500000001</v>
+        <v>45.505962187500003</v>
       </c>
       <c r="AA18">
         <v>1</v>
@@ -5529,10 +5586,10 @@
         <v>180000</v>
       </c>
       <c r="D19">
-        <v>566.75108150000005</v>
+        <v>322.54343499999999</v>
       </c>
       <c r="E19">
-        <v>52.0504435</v>
+        <v>37.905663812500002</v>
       </c>
       <c r="F19">
         <v>180</v>
@@ -5547,13 +5604,13 @@
         <v>180000</v>
       </c>
       <c r="K19">
-        <v>629.27707299999997</v>
+        <v>290.61591299999998</v>
       </c>
       <c r="L19">
-        <v>79.610235500000002</v>
+        <v>70.546518625000004</v>
       </c>
       <c r="M19">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O19">
         <v>3</v>
@@ -5565,10 +5622,10 @@
         <v>180000</v>
       </c>
       <c r="R19">
-        <v>551.22047050000003</v>
+        <v>306.71204399999999</v>
       </c>
       <c r="S19">
-        <v>30.480973500000001</v>
+        <v>5.3182769375000003</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -5583,10 +5640,10 @@
         <v>180000</v>
       </c>
       <c r="Y19">
-        <v>615.07720449999999</v>
+        <v>297.36655200000001</v>
       </c>
       <c r="Z19">
-        <v>83.064154000000002</v>
+        <v>47.263256937500003</v>
       </c>
       <c r="AA19">
         <v>1</v>
@@ -5603,10 +5660,10 @@
         <v>190000</v>
       </c>
       <c r="D20">
-        <v>561.92462850000004</v>
+        <v>311.97802999999999</v>
       </c>
       <c r="E20">
-        <v>54.468362999999997</v>
+        <v>39.282597250000002</v>
       </c>
       <c r="F20">
         <v>190</v>
@@ -5621,13 +5678,13 @@
         <v>190000</v>
       </c>
       <c r="K20">
-        <v>635.55040699999995</v>
+        <v>273.42612400000002</v>
       </c>
       <c r="L20">
-        <v>88.709875499999995</v>
+        <v>90.371408312499995</v>
       </c>
       <c r="M20">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20">
         <v>3</v>
@@ -5639,10 +5696,10 @@
         <v>190000</v>
       </c>
       <c r="R20">
-        <v>573.07823199999996</v>
+        <v>297.06608999999997</v>
       </c>
       <c r="S20">
-        <v>9.9024859999999997</v>
+        <v>6.1645263750000003</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -5657,10 +5714,10 @@
         <v>190000</v>
       </c>
       <c r="Y20">
-        <v>632.57540849999998</v>
+        <v>276.411855</v>
       </c>
       <c r="Z20">
-        <v>82.525258500000007</v>
+        <v>50.024327249999999</v>
       </c>
       <c r="AA20">
         <v>1</v>
@@ -5677,10 +5734,10 @@
         <v>200000</v>
       </c>
       <c r="D21">
-        <v>565.68927350000001</v>
+        <v>287.43310000000002</v>
       </c>
       <c r="E21">
-        <v>50.185350999999997</v>
+        <v>40.143088874999997</v>
       </c>
       <c r="F21">
         <v>200</v>
@@ -5695,13 +5752,13 @@
         <v>200000</v>
       </c>
       <c r="K21">
-        <v>638.4866925</v>
+        <v>270.26325300000002</v>
       </c>
       <c r="L21">
-        <v>91.615514000000005</v>
+        <v>78.5443900625</v>
       </c>
       <c r="M21">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O21">
         <v>3</v>
@@ -5713,10 +5770,10 @@
         <v>200000</v>
       </c>
       <c r="R21">
-        <v>557.17677249999997</v>
+        <v>320.80949600000002</v>
       </c>
       <c r="S21">
-        <v>9.871105</v>
+        <v>5.374091</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -5731,10 +5788,10 @@
         <v>200000</v>
       </c>
       <c r="Y21">
-        <v>634.38917749999996</v>
+        <v>276.16855299999997</v>
       </c>
       <c r="Z21">
-        <v>85.964807500000006</v>
+        <v>52.284517937499999</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -5751,10 +5808,10 @@
         <v>210000</v>
       </c>
       <c r="D22">
-        <v>572.90915800000005</v>
+        <v>301.685137</v>
       </c>
       <c r="E22">
-        <v>63.592931999999998</v>
+        <v>48.220841499999999</v>
       </c>
       <c r="F22">
         <v>210</v>
@@ -5769,13 +5826,13 @@
         <v>210000</v>
       </c>
       <c r="K22">
-        <v>636.76838450000002</v>
+        <v>283.50424900000002</v>
       </c>
       <c r="L22">
-        <v>97.535302999999999</v>
+        <v>82.937177875000003</v>
       </c>
       <c r="M22">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -5787,10 +5844,10 @@
         <v>210000</v>
       </c>
       <c r="R22">
-        <v>560.70694300000002</v>
+        <v>322.43518599999999</v>
       </c>
       <c r="S22">
-        <v>5.7677244999999999</v>
+        <v>5.8464313125</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -5805,10 +5862,10 @@
         <v>210000</v>
       </c>
       <c r="Y22">
-        <v>629.82432749999998</v>
+        <v>279.35344800000001</v>
       </c>
       <c r="Z22">
-        <v>90.848010000000002</v>
+        <v>63.815070374999998</v>
       </c>
       <c r="AA22">
         <v>1</v>
@@ -5825,10 +5882,10 @@
         <v>220000</v>
       </c>
       <c r="D23">
-        <v>577.37957300000005</v>
+        <v>297.01233300000001</v>
       </c>
       <c r="E23">
-        <v>53.223696500000003</v>
+        <v>59.350356499999997</v>
       </c>
       <c r="F23">
         <v>220</v>
@@ -5843,13 +5900,13 @@
         <v>220000</v>
       </c>
       <c r="K23">
-        <v>649.82652700000006</v>
+        <v>283.65863000000002</v>
       </c>
       <c r="L23">
-        <v>95.220324500000004</v>
+        <v>83.102072500000006</v>
       </c>
       <c r="M23">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -5861,10 +5918,10 @@
         <v>220000</v>
       </c>
       <c r="R23">
-        <v>569.087763</v>
+        <v>329.51174400000002</v>
       </c>
       <c r="S23">
-        <v>11.798079</v>
+        <v>6.7833581875000002</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -5879,10 +5936,10 @@
         <v>220000</v>
       </c>
       <c r="Y23">
-        <v>624.74932200000001</v>
+        <v>280.99755599999997</v>
       </c>
       <c r="Z23">
-        <v>91.065473999999995</v>
+        <v>69.332518687499999</v>
       </c>
       <c r="AA23">
         <v>1</v>
@@ -5899,10 +5956,10 @@
         <v>230000</v>
       </c>
       <c r="D24">
-        <v>590.32069799999999</v>
+        <v>294.99913600000002</v>
       </c>
       <c r="E24">
-        <v>57.3024415</v>
+        <v>58.916325562499999</v>
       </c>
       <c r="F24">
         <v>230</v>
@@ -5917,13 +5974,13 @@
         <v>230000</v>
       </c>
       <c r="K24">
-        <v>666.29415700000004</v>
+        <v>271.81277999999998</v>
       </c>
       <c r="L24">
-        <v>104.44959299999999</v>
+        <v>95.972770437500003</v>
       </c>
       <c r="M24">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -5935,10 +5992,10 @@
         <v>230000</v>
       </c>
       <c r="R24">
-        <v>568.7456555</v>
+        <v>361.66708299999999</v>
       </c>
       <c r="S24">
-        <v>7.1700274999999998</v>
+        <v>5.3790768125000001</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -5953,10 +6010,10 @@
         <v>230000</v>
       </c>
       <c r="Y24">
-        <v>644.51939349999998</v>
+        <v>285.78168899999997</v>
       </c>
       <c r="Z24">
-        <v>88.643448500000005</v>
+        <v>65.637050937500007</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -5973,10 +6030,10 @@
         <v>240000</v>
       </c>
       <c r="D25">
-        <v>585.75980600000003</v>
+        <v>313.59301599999998</v>
       </c>
       <c r="E25">
-        <v>59.933572499999997</v>
+        <v>50.820463125000003</v>
       </c>
       <c r="F25">
         <v>240</v>
@@ -5991,13 +6048,13 @@
         <v>240000</v>
       </c>
       <c r="K25">
-        <v>665.14407200000005</v>
+        <v>300.86639700000001</v>
       </c>
       <c r="L25">
-        <v>109.4679965</v>
+        <v>96.517623187500007</v>
       </c>
       <c r="M25">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -6009,10 +6066,10 @@
         <v>240000</v>
       </c>
       <c r="R25">
-        <v>568.75577350000003</v>
+        <v>320.20050700000002</v>
       </c>
       <c r="S25">
-        <v>10.263215499999999</v>
+        <v>5.7745236875000003</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -6027,10 +6084,10 @@
         <v>240000</v>
       </c>
       <c r="Y25">
-        <v>661.29100349999999</v>
+        <v>299.06057600000003</v>
       </c>
       <c r="Z25">
-        <v>90.640809500000003</v>
+        <v>71.343076062500003</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -6047,10 +6104,10 @@
         <v>250000</v>
       </c>
       <c r="D26">
-        <v>573.57548250000002</v>
+        <v>306.32257299999998</v>
       </c>
       <c r="E26">
-        <v>75.596598</v>
+        <v>55.713653999999998</v>
       </c>
       <c r="F26">
         <v>250</v>
@@ -6065,13 +6122,13 @@
         <v>250000</v>
       </c>
       <c r="K26">
-        <v>681.77578949999997</v>
+        <v>293.51594799999998</v>
       </c>
       <c r="L26">
-        <v>114.452966</v>
+        <v>98.569642625</v>
       </c>
       <c r="M26">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O26">
         <v>3</v>
@@ -6083,10 +6140,10 @@
         <v>250000</v>
       </c>
       <c r="R26">
-        <v>559.69440550000002</v>
+        <v>311.83567299999999</v>
       </c>
       <c r="S26">
-        <v>5.9642200000000001</v>
+        <v>6.9628801249999999</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -6101,10 +6158,10 @@
         <v>250000</v>
       </c>
       <c r="Y26">
-        <v>664.38096700000006</v>
+        <v>293.40846299999998</v>
       </c>
       <c r="Z26">
-        <v>105.19231600000001</v>
+        <v>74.935163937499993</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -6121,10 +6178,10 @@
         <v>260000</v>
       </c>
       <c r="D27">
-        <v>585.8436835</v>
+        <v>306.52244100000001</v>
       </c>
       <c r="E27">
-        <v>70.216291499999997</v>
+        <v>47.155551062500003</v>
       </c>
       <c r="F27">
         <v>260</v>
@@ -6139,13 +6196,13 @@
         <v>260000</v>
       </c>
       <c r="K27">
-        <v>696.07434550000005</v>
+        <v>295.288453</v>
       </c>
       <c r="L27">
-        <v>118.9351125</v>
+        <v>111.314689875</v>
       </c>
       <c r="M27">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O27">
         <v>3</v>
@@ -6157,10 +6214,10 @@
         <v>260000</v>
       </c>
       <c r="R27">
-        <v>569.63311099999999</v>
+        <v>315.57060899999999</v>
       </c>
       <c r="S27">
-        <v>8.4674829999999996</v>
+        <v>6.4541370000000002</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -6175,10 +6232,10 @@
         <v>260000</v>
       </c>
       <c r="Y27">
-        <v>683.96803299999999</v>
+        <v>287.41491600000001</v>
       </c>
       <c r="Z27">
-        <v>102.7721975</v>
+        <v>70.746643187499998</v>
       </c>
       <c r="AA27">
         <v>1</v>
@@ -6195,10 +6252,10 @@
         <v>270000</v>
       </c>
       <c r="D28">
-        <v>589.619913</v>
+        <v>304.43706800000001</v>
       </c>
       <c r="E28">
-        <v>71.165188499999999</v>
+        <v>52.365352312500001</v>
       </c>
       <c r="F28">
         <v>270</v>
@@ -6213,13 +6270,13 @@
         <v>270000</v>
       </c>
       <c r="K28">
-        <v>709.72036100000003</v>
+        <v>298.653098</v>
       </c>
       <c r="L28">
-        <v>114.3473865</v>
+        <v>117.512833</v>
       </c>
       <c r="M28">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O28">
         <v>3</v>
@@ -6231,10 +6288,10 @@
         <v>270000</v>
       </c>
       <c r="R28">
-        <v>566.59711100000004</v>
+        <v>325.76088399999998</v>
       </c>
       <c r="S28">
-        <v>10.207786</v>
+        <v>5.9703222499999997</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -6249,10 +6306,10 @@
         <v>270000</v>
       </c>
       <c r="Y28">
-        <v>710.41528000000005</v>
+        <v>287.54096600000003</v>
       </c>
       <c r="Z28">
-        <v>100.224357</v>
+        <v>75.263010312500001</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -6269,10 +6326,10 @@
         <v>280000</v>
       </c>
       <c r="D29">
-        <v>586.20192050000003</v>
+        <v>316.65150899999998</v>
       </c>
       <c r="E29">
-        <v>80.111298500000004</v>
+        <v>43.7212826875</v>
       </c>
       <c r="F29">
         <v>280</v>
@@ -6287,13 +6344,13 @@
         <v>280000</v>
       </c>
       <c r="K29">
-        <v>691.46081100000004</v>
+        <v>295.143956</v>
       </c>
       <c r="L29">
-        <v>120.7092895</v>
+        <v>119.4963723125</v>
       </c>
       <c r="M29">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -6305,10 +6362,10 @@
         <v>280000</v>
       </c>
       <c r="R29">
-        <v>566.32861600000001</v>
+        <v>327.27732900000001</v>
       </c>
       <c r="S29">
-        <v>10.057922</v>
+        <v>6.3671804375000001</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -6323,10 +6380,10 @@
         <v>280000</v>
       </c>
       <c r="Y29">
-        <v>715.74132999999995</v>
+        <v>289.12536399999999</v>
       </c>
       <c r="Z29">
-        <v>104.9477235</v>
+        <v>78.747007374999995</v>
       </c>
       <c r="AA29">
         <v>1</v>
@@ -6343,10 +6400,10 @@
         <v>290000</v>
       </c>
       <c r="D30">
-        <v>583.24349299999994</v>
+        <v>305.750742</v>
       </c>
       <c r="E30">
-        <v>58.521298999999999</v>
+        <v>67.224666999999997</v>
       </c>
       <c r="F30">
         <v>290</v>
@@ -6361,13 +6418,13 @@
         <v>290000</v>
       </c>
       <c r="K30">
-        <v>716.65268700000001</v>
+        <v>307.61114199999997</v>
       </c>
       <c r="L30">
-        <v>122.481854</v>
+        <v>122.1085683125</v>
       </c>
       <c r="M30">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -6379,10 +6436,10 @@
         <v>290000</v>
       </c>
       <c r="R30">
-        <v>582.86897850000003</v>
+        <v>322.37439000000001</v>
       </c>
       <c r="S30">
-        <v>8.7480019999999996</v>
+        <v>11.516255187500001</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -6397,10 +6454,10 @@
         <v>290000</v>
       </c>
       <c r="Y30">
-        <v>702.02698099999998</v>
+        <v>283.79010599999998</v>
       </c>
       <c r="Z30">
-        <v>98.678788499999996</v>
+        <v>83.785040312500001</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -6417,10 +6474,10 @@
         <v>300000</v>
       </c>
       <c r="D31">
-        <v>589.489552</v>
+        <v>309.79957100000001</v>
       </c>
       <c r="E31">
-        <v>83.600263499999997</v>
+        <v>67.442681375000006</v>
       </c>
       <c r="F31">
         <v>300</v>
@@ -6435,13 +6492,13 @@
         <v>300000</v>
       </c>
       <c r="K31">
-        <v>734.511034</v>
+        <v>318.27083499999998</v>
       </c>
       <c r="L31">
-        <v>134.23330150000001</v>
+        <v>122.42527025</v>
       </c>
       <c r="M31">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O31">
         <v>3</v>
@@ -6453,10 +6510,10 @@
         <v>300000</v>
       </c>
       <c r="R31">
-        <v>580.78671450000002</v>
+        <v>305.41059999999999</v>
       </c>
       <c r="S31">
-        <v>9.133661</v>
+        <v>13.155872562500001</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -6471,10 +6528,10 @@
         <v>300000</v>
       </c>
       <c r="Y31">
-        <v>718.4872795</v>
+        <v>292.771524</v>
       </c>
       <c r="Z31">
-        <v>105.9758045</v>
+        <v>78.990940312500001</v>
       </c>
       <c r="AA31">
         <v>1</v>
@@ -6491,10 +6548,10 @@
         <v>310000</v>
       </c>
       <c r="D32">
-        <v>586.80695049999997</v>
+        <v>322.00703199999998</v>
       </c>
       <c r="E32">
-        <v>75.297895499999996</v>
+        <v>88.240076000000002</v>
       </c>
       <c r="F32">
         <v>310</v>
@@ -6509,13 +6566,13 @@
         <v>310000</v>
       </c>
       <c r="K32">
-        <v>760.61397450000004</v>
+        <v>293.924307</v>
       </c>
       <c r="L32">
-        <v>123.02353549999999</v>
+        <v>141.91635618750001</v>
       </c>
       <c r="M32">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O32">
         <v>3</v>
@@ -6527,10 +6584,10 @@
         <v>310000</v>
       </c>
       <c r="R32">
-        <v>584.30398100000002</v>
+        <v>330.80280599999998</v>
       </c>
       <c r="S32">
-        <v>9.8221270000000001</v>
+        <v>8.4381895</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -6545,10 +6602,10 @@
         <v>310000</v>
       </c>
       <c r="Y32">
-        <v>745.84236399999998</v>
+        <v>288.48253099999999</v>
       </c>
       <c r="Z32">
-        <v>103.33704849999999</v>
+        <v>94.4744938125</v>
       </c>
       <c r="AA32">
         <v>1</v>
@@ -6565,10 +6622,10 @@
         <v>320000</v>
       </c>
       <c r="D33">
-        <v>598.54476150000005</v>
+        <v>315.23897099999999</v>
       </c>
       <c r="E33">
-        <v>84.830412499999994</v>
+        <v>56.569288374999999</v>
       </c>
       <c r="F33">
         <v>320</v>
@@ -6583,13 +6640,13 @@
         <v>320000</v>
       </c>
       <c r="K33">
-        <v>787.16914750000001</v>
+        <v>318.354536</v>
       </c>
       <c r="L33">
-        <v>130.96121400000001</v>
+        <v>146.9866311875</v>
       </c>
       <c r="M33">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O33">
         <v>3</v>
@@ -6601,10 +6658,10 @@
         <v>320000</v>
       </c>
       <c r="R33">
-        <v>584.54710750000004</v>
+        <v>320.89827000000002</v>
       </c>
       <c r="S33">
-        <v>7.7065764999999997</v>
+        <v>6.1516221875000001</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -6619,10 +6676,10 @@
         <v>320000</v>
       </c>
       <c r="Y33">
-        <v>759.46594349999998</v>
+        <v>313.930812</v>
       </c>
       <c r="Z33">
-        <v>109.330303</v>
+        <v>112.2131241875</v>
       </c>
       <c r="AA33">
         <v>1</v>
@@ -6639,10 +6696,10 @@
         <v>330000</v>
       </c>
       <c r="D34">
-        <v>597.11753050000004</v>
+        <v>320.93211500000001</v>
       </c>
       <c r="E34">
-        <v>87.624312000000003</v>
+        <v>61.6818318125</v>
       </c>
       <c r="F34">
         <v>330</v>
@@ -6657,13 +6714,13 @@
         <v>330000</v>
       </c>
       <c r="K34">
-        <v>809.32341050000002</v>
+        <v>321.01132799999999</v>
       </c>
       <c r="L34">
-        <v>141.62680599999999</v>
+        <v>153.03936418750001</v>
       </c>
       <c r="M34">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O34">
         <v>3</v>
@@ -6675,10 +6732,10 @@
         <v>330000</v>
       </c>
       <c r="R34">
-        <v>587.33587499999999</v>
+        <v>321.79296900000003</v>
       </c>
       <c r="S34">
-        <v>10.12171</v>
+        <v>5.7227602500000003</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -6693,10 +6750,10 @@
         <v>330000</v>
       </c>
       <c r="Y34">
-        <v>781.98181650000004</v>
+        <v>279.92536699999999</v>
       </c>
       <c r="Z34">
-        <v>103.19041</v>
+        <v>92.702040437500003</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -6713,10 +6770,10 @@
         <v>340000</v>
       </c>
       <c r="D35">
-        <v>592.9251415</v>
+        <v>316.11138099999999</v>
       </c>
       <c r="E35">
-        <v>81.766405500000005</v>
+        <v>64.668743375000005</v>
       </c>
       <c r="F35">
         <v>340</v>
@@ -6731,13 +6788,13 @@
         <v>340000</v>
       </c>
       <c r="K35">
-        <v>831.07544499999995</v>
+        <v>339.67650400000002</v>
       </c>
       <c r="L35">
-        <v>144.65987250000001</v>
+        <v>147.99405437499999</v>
       </c>
       <c r="M35">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O35">
         <v>3</v>
@@ -6749,10 +6806,10 @@
         <v>340000</v>
       </c>
       <c r="R35">
-        <v>592.27875900000004</v>
+        <v>320.716204</v>
       </c>
       <c r="S35">
-        <v>3.6762225000000002</v>
+        <v>6.8622496875000003</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -6767,10 +6824,10 @@
         <v>340000</v>
       </c>
       <c r="Y35">
-        <v>797.32355749999999</v>
+        <v>295.257835</v>
       </c>
       <c r="Z35">
-        <v>117.0223625</v>
+        <v>96.583647124999999</v>
       </c>
       <c r="AA35">
         <v>1</v>
@@ -6787,10 +6844,10 @@
         <v>350000</v>
       </c>
       <c r="D36">
-        <v>597.82183399999997</v>
+        <v>344.71968700000002</v>
       </c>
       <c r="E36">
-        <v>86.385805000000005</v>
+        <v>84.028643125000002</v>
       </c>
       <c r="F36">
         <v>350</v>
@@ -6805,13 +6862,13 @@
         <v>350000</v>
       </c>
       <c r="K36">
-        <v>828.17669850000004</v>
+        <v>317.354581</v>
       </c>
       <c r="L36">
-        <v>142.85534150000001</v>
+        <v>144.722224625</v>
       </c>
       <c r="M36">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O36">
         <v>3</v>
@@ -6823,10 +6880,10 @@
         <v>350000</v>
       </c>
       <c r="R36">
-        <v>592.27538649999997</v>
+        <v>332.92903200000001</v>
       </c>
       <c r="S36">
-        <v>9.3314760000000003</v>
+        <v>6.3880763749999998</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -6841,10 +6898,10 @@
         <v>350000</v>
       </c>
       <c r="Y36">
-        <v>834.00865199999998</v>
+        <v>291.35719799999998</v>
       </c>
       <c r="Z36">
-        <v>114.5441745</v>
+        <v>101.3155359375</v>
       </c>
       <c r="AA36">
         <v>1</v>
@@ -6861,10 +6918,10 @@
         <v>360000</v>
       </c>
       <c r="D37">
-        <v>619.07515249999994</v>
+        <v>318.78195699999998</v>
       </c>
       <c r="E37">
-        <v>69.952929499999996</v>
+        <v>82.001918937499994</v>
       </c>
       <c r="F37">
         <v>360</v>
@@ -6879,13 +6936,13 @@
         <v>360000</v>
       </c>
       <c r="K37">
-        <v>820.78114200000005</v>
+        <v>320.00530199999997</v>
       </c>
       <c r="L37">
-        <v>145.72871900000001</v>
+        <v>156.79704325</v>
       </c>
       <c r="M37">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O37">
         <v>3</v>
@@ -6897,10 +6954,10 @@
         <v>360000</v>
       </c>
       <c r="R37">
-        <v>589.31739800000003</v>
+        <v>321.11165899999997</v>
       </c>
       <c r="S37">
-        <v>8.8412640000000007</v>
+        <v>6.3838239374999999</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -6915,10 +6972,10 @@
         <v>360000</v>
       </c>
       <c r="Y37">
-        <v>813.64880149999999</v>
+        <v>276.60160500000001</v>
       </c>
       <c r="Z37">
-        <v>111.66815699999999</v>
+        <v>107.0338236875</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -6935,10 +6992,10 @@
         <v>370000</v>
       </c>
       <c r="D38">
-        <v>602.24459300000001</v>
+        <v>313.40663799999999</v>
       </c>
       <c r="E38">
-        <v>97.984896000000006</v>
+        <v>82.217000624999997</v>
       </c>
       <c r="F38">
         <v>370</v>
@@ -6953,13 +7010,13 @@
         <v>370000</v>
       </c>
       <c r="K38">
-        <v>876.55707900000004</v>
+        <v>298.33286900000002</v>
       </c>
       <c r="L38">
-        <v>156.694332</v>
+        <v>168.14693725000001</v>
       </c>
       <c r="M38">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O38">
         <v>3</v>
@@ -6971,10 +7028,10 @@
         <v>370000</v>
       </c>
       <c r="R38">
-        <v>594.06012150000004</v>
+        <v>348.726519</v>
       </c>
       <c r="S38">
-        <v>4.0784514999999999</v>
+        <v>6.4551267499999998</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -6989,10 +7046,10 @@
         <v>370000</v>
       </c>
       <c r="Y38">
-        <v>818.21394550000002</v>
+        <v>285.24980199999999</v>
       </c>
       <c r="Z38">
-        <v>109.554513</v>
+        <v>108.51800475</v>
       </c>
       <c r="AA38">
         <v>1</v>
@@ -7009,10 +7066,10 @@
         <v>380000</v>
       </c>
       <c r="D39">
-        <v>612.43639599999995</v>
+        <v>330.30189000000001</v>
       </c>
       <c r="E39">
-        <v>85.056382499999998</v>
+        <v>67.942039500000007</v>
       </c>
       <c r="F39">
         <v>380</v>
@@ -7027,13 +7084,13 @@
         <v>380000</v>
       </c>
       <c r="K39">
-        <v>909.96554000000003</v>
+        <v>320.93249600000001</v>
       </c>
       <c r="L39">
-        <v>159.17970550000001</v>
+        <v>162.33965843749999</v>
       </c>
       <c r="M39">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O39">
         <v>3</v>
@@ -7045,10 +7102,10 @@
         <v>380000</v>
       </c>
       <c r="R39">
-        <v>609.55729899999994</v>
+        <v>343.30034599999999</v>
       </c>
       <c r="S39">
-        <v>5.1843975000000002</v>
+        <v>6.8829439375000003</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -7063,10 +7120,10 @@
         <v>380000</v>
       </c>
       <c r="Y39">
-        <v>843.07500549999997</v>
+        <v>292.582244</v>
       </c>
       <c r="Z39">
-        <v>111.9360655</v>
+        <v>109.558531625</v>
       </c>
       <c r="AA39">
         <v>1</v>
@@ -7083,10 +7140,10 @@
         <v>390000</v>
       </c>
       <c r="D40">
-        <v>617.85644100000002</v>
+        <v>320.57557800000001</v>
       </c>
       <c r="E40">
-        <v>100.89786599999999</v>
+        <v>83.159499812500002</v>
       </c>
       <c r="F40">
         <v>390</v>
@@ -7101,13 +7158,13 @@
         <v>390000</v>
       </c>
       <c r="K40">
-        <v>948.79404650000004</v>
+        <v>304.958866</v>
       </c>
       <c r="L40">
-        <v>166.4538455</v>
+        <v>159.94122437499999</v>
       </c>
       <c r="M40">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O40">
         <v>3</v>
@@ -7119,10 +7176,10 @@
         <v>390000</v>
       </c>
       <c r="R40">
-        <v>600.41190700000004</v>
+        <v>315.00886700000001</v>
       </c>
       <c r="S40">
-        <v>5.1528704999999997</v>
+        <v>12.330354249999999</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -7137,10 +7194,10 @@
         <v>390000</v>
       </c>
       <c r="Y40">
-        <v>896.817362</v>
+        <v>279.68121400000001</v>
       </c>
       <c r="Z40">
-        <v>126.527458</v>
+        <v>121.141452125</v>
       </c>
       <c r="AA40">
         <v>1</v>
@@ -7157,10 +7214,10 @@
         <v>400000</v>
       </c>
       <c r="D41">
-        <v>613.57841499999995</v>
+        <v>310.05589500000002</v>
       </c>
       <c r="E41">
-        <v>82.525405000000006</v>
+        <v>81.100368500000002</v>
       </c>
       <c r="F41">
         <v>400</v>
@@ -7175,13 +7232,13 @@
         <v>400000</v>
       </c>
       <c r="K41">
-        <v>976.23183500000005</v>
+        <v>290.85868699999997</v>
       </c>
       <c r="L41">
-        <v>186.04912400000001</v>
+        <v>160.47315474999999</v>
       </c>
       <c r="M41">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O41">
         <v>3</v>
@@ -7193,10 +7250,10 @@
         <v>400000</v>
       </c>
       <c r="R41">
-        <v>596.20690649999995</v>
+        <v>323.57479999999998</v>
       </c>
       <c r="S41">
-        <v>3.695872</v>
+        <v>8.5528421874999996</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -7211,10 +7268,10 @@
         <v>400000</v>
       </c>
       <c r="Y41">
-        <v>931.95160950000002</v>
+        <v>289.27909899999997</v>
       </c>
       <c r="Z41">
-        <v>128.78011599999999</v>
+        <v>124.782168875</v>
       </c>
       <c r="AA41">
         <v>1</v>
@@ -7231,10 +7288,10 @@
         <v>410000</v>
       </c>
       <c r="D42">
-        <v>611.37942650000002</v>
+        <v>325.28691900000001</v>
       </c>
       <c r="E42">
-        <v>72.153824</v>
+        <v>86.190219562500005</v>
       </c>
       <c r="F42">
         <v>410</v>
@@ -7249,13 +7306,13 @@
         <v>410000</v>
       </c>
       <c r="K42">
-        <v>1051.7435295</v>
+        <v>291.90430600000002</v>
       </c>
       <c r="L42">
-        <v>178.157636</v>
+        <v>200.28088199999999</v>
       </c>
       <c r="M42">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O42">
         <v>3</v>
@@ -7267,10 +7324,10 @@
         <v>410000</v>
       </c>
       <c r="R42">
-        <v>598.97895749999998</v>
+        <v>329.43634300000002</v>
       </c>
       <c r="S42">
-        <v>9.2559574999999992</v>
+        <v>6.1109483750000004</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -7285,10 +7342,10 @@
         <v>410000</v>
       </c>
       <c r="Y42">
-        <v>991.00535249999996</v>
+        <v>283.17548699999998</v>
       </c>
       <c r="Z42">
-        <v>132.0390055</v>
+        <v>128.6483785625</v>
       </c>
       <c r="AA42">
         <v>1</v>
@@ -7305,10 +7362,10 @@
         <v>420000</v>
       </c>
       <c r="D43">
-        <v>620.79126050000002</v>
+        <v>324.73640999999998</v>
       </c>
       <c r="E43">
-        <v>74.340641000000005</v>
+        <v>92.9567694375</v>
       </c>
       <c r="F43">
         <v>420</v>
@@ -7323,13 +7380,13 @@
         <v>420000</v>
       </c>
       <c r="K43">
-        <v>999.26240949999999</v>
+        <v>285.93084900000002</v>
       </c>
       <c r="L43">
-        <v>184.21174550000001</v>
+        <v>169.74261831250001</v>
       </c>
       <c r="M43">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O43">
         <v>3</v>
@@ -7341,10 +7398,10 @@
         <v>420000</v>
       </c>
       <c r="R43">
-        <v>608.56734400000005</v>
+        <v>326.24127099999998</v>
       </c>
       <c r="S43">
-        <v>5.4939514999999997</v>
+        <v>6.3240321875000003</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -7359,10 +7416,10 @@
         <v>420000</v>
       </c>
       <c r="Y43">
-        <v>1037.0380525</v>
+        <v>296.68978700000002</v>
       </c>
       <c r="Z43">
-        <v>144.82132150000001</v>
+        <v>135.36085556250001</v>
       </c>
       <c r="AA43">
         <v>1</v>
@@ -7379,10 +7436,10 @@
         <v>430000</v>
       </c>
       <c r="D44">
-        <v>618.33492200000001</v>
+        <v>325.32832999999999</v>
       </c>
       <c r="E44">
-        <v>93.657892500000003</v>
+        <v>82.733148999999997</v>
       </c>
       <c r="F44">
         <v>430</v>
@@ -7397,13 +7454,13 @@
         <v>430000</v>
       </c>
       <c r="K44">
-        <v>1027.5599380000001</v>
+        <v>301.73241400000001</v>
       </c>
       <c r="L44">
-        <v>186.06979949999999</v>
+        <v>179.395009375</v>
       </c>
       <c r="M44">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O44">
         <v>3</v>
@@ -7415,10 +7472,10 @@
         <v>430000</v>
       </c>
       <c r="R44">
-        <v>600.45017949999999</v>
+        <v>322.94208500000002</v>
       </c>
       <c r="S44">
-        <v>8.5805410000000002</v>
+        <v>6.5312503749999999</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -7433,10 +7490,10 @@
         <v>430000</v>
       </c>
       <c r="Y44">
-        <v>1011.0681135</v>
+        <v>292.51288399999999</v>
       </c>
       <c r="Z44">
-        <v>149.94119800000001</v>
+        <v>145.954334375</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -7453,10 +7510,10 @@
         <v>440000</v>
       </c>
       <c r="D45">
-        <v>612.38111249999997</v>
+        <v>336.96481</v>
       </c>
       <c r="E45">
-        <v>88.258816499999995</v>
+        <v>85.016251874999995</v>
       </c>
       <c r="F45">
         <v>440</v>
@@ -7471,13 +7528,13 @@
         <v>440000</v>
       </c>
       <c r="K45">
-        <v>1051.709509</v>
+        <v>291.31602199999998</v>
       </c>
       <c r="L45">
-        <v>197.09656100000001</v>
+        <v>183.0936299375</v>
       </c>
       <c r="M45">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O45">
         <v>3</v>
@@ -7489,10 +7546,10 @@
         <v>440000</v>
       </c>
       <c r="R45">
-        <v>615.78898700000002</v>
+        <v>335.11825299999998</v>
       </c>
       <c r="S45">
-        <v>6.6072290000000002</v>
+        <v>5.8915408749999996</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -7507,10 +7564,10 @@
         <v>440000</v>
       </c>
       <c r="Y45">
-        <v>1023.8485224999999</v>
+        <v>300.17655200000002</v>
       </c>
       <c r="Z45">
-        <v>146.605323</v>
+        <v>142.51130431249999</v>
       </c>
       <c r="AA45">
         <v>1</v>
@@ -7527,10 +7584,10 @@
         <v>450000</v>
       </c>
       <c r="D46">
-        <v>605.09333500000002</v>
+        <v>310.94707499999998</v>
       </c>
       <c r="E46">
-        <v>100.7543075</v>
+        <v>95.447805500000001</v>
       </c>
       <c r="F46">
         <v>450</v>
@@ -7545,13 +7602,13 @@
         <v>450000</v>
       </c>
       <c r="K46">
-        <v>1269.8190480000001</v>
+        <v>291.69807400000002</v>
       </c>
       <c r="L46">
-        <v>206.73011249999999</v>
+        <v>190.492154</v>
       </c>
       <c r="M46">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O46">
         <v>3</v>
@@ -7563,10 +7620,10 @@
         <v>450000</v>
       </c>
       <c r="R46">
-        <v>617.43192299999998</v>
+        <v>341.16379699999999</v>
       </c>
       <c r="S46">
-        <v>4.6614855000000004</v>
+        <v>6.03273525</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -7581,10 +7638,10 @@
         <v>450000</v>
       </c>
       <c r="Y46">
-        <v>1213.9919345000001</v>
+        <v>302.60429499999998</v>
       </c>
       <c r="Z46">
-        <v>167.33690150000001</v>
+        <v>144.38952075</v>
       </c>
       <c r="AA46">
         <v>1</v>
@@ -7601,10 +7658,10 @@
         <v>460000</v>
       </c>
       <c r="D47">
-        <v>612.01349049999999</v>
+        <v>315.25724300000002</v>
       </c>
       <c r="E47">
-        <v>87.7592195</v>
+        <v>98.793760937499997</v>
       </c>
       <c r="F47">
         <v>460</v>
@@ -7619,13 +7676,13 @@
         <v>460000</v>
       </c>
       <c r="K47">
-        <v>1203.918909</v>
+        <v>293.02177699999999</v>
       </c>
       <c r="L47">
-        <v>211.9722855</v>
+        <v>190.11611843750001</v>
       </c>
       <c r="M47">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O47">
         <v>3</v>
@@ -7637,10 +7694,10 @@
         <v>460000</v>
       </c>
       <c r="R47">
-        <v>625.74440949999996</v>
+        <v>324.31192199999998</v>
       </c>
       <c r="S47">
-        <v>3.7416235000000002</v>
+        <v>7.2320348125000002</v>
       </c>
       <c r="T47">
         <v>1</v>
@@ -7655,10 +7712,10 @@
         <v>460000</v>
       </c>
       <c r="Y47">
-        <v>1211.7216805</v>
+        <v>289.66519799999998</v>
       </c>
       <c r="Z47">
-        <v>172.78275500000001</v>
+        <v>149.63880437500001</v>
       </c>
       <c r="AA47">
         <v>1</v>
@@ -7675,10 +7732,10 @@
         <v>470000</v>
       </c>
       <c r="D48">
-        <v>621.57518900000002</v>
+        <v>323.39114999999998</v>
       </c>
       <c r="E48">
-        <v>100.44886</v>
+        <v>97.029335875000001</v>
       </c>
       <c r="F48">
         <v>470</v>
@@ -7693,13 +7750,13 @@
         <v>470000</v>
       </c>
       <c r="K48">
-        <v>1589.581641</v>
+        <v>306.84941500000002</v>
       </c>
       <c r="L48">
-        <v>219.58823949999999</v>
+        <v>195.87156081250001</v>
       </c>
       <c r="M48">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O48">
         <v>3</v>
@@ -7711,10 +7768,10 @@
         <v>470000</v>
       </c>
       <c r="R48">
-        <v>606.16071550000004</v>
+        <v>327.12796300000002</v>
       </c>
       <c r="S48">
-        <v>9.857761</v>
+        <v>6.2119088749999998</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -7729,10 +7786,10 @@
         <v>470000</v>
       </c>
       <c r="Y48">
-        <v>1298.2287555</v>
+        <v>281.01450799999998</v>
       </c>
       <c r="Z48">
-        <v>188.44973949999999</v>
+        <v>151.01857874999999</v>
       </c>
       <c r="AA48">
         <v>1</v>
@@ -7749,10 +7806,10 @@
         <v>480000</v>
       </c>
       <c r="D49">
-        <v>632.88100299999996</v>
+        <v>316.04630300000002</v>
       </c>
       <c r="E49">
-        <v>119.8960335</v>
+        <v>87.054872250000003</v>
       </c>
       <c r="F49">
         <v>480</v>
@@ -7767,13 +7824,13 @@
         <v>480000</v>
       </c>
       <c r="K49">
-        <v>1358.7798224999999</v>
+        <v>296.34521699999999</v>
       </c>
       <c r="L49">
-        <v>247.545861</v>
+        <v>203.055663125</v>
       </c>
       <c r="M49">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O49">
         <v>3</v>
@@ -7785,10 +7842,10 @@
         <v>480000</v>
       </c>
       <c r="R49">
-        <v>610.19370900000001</v>
+        <v>337.07995099999999</v>
       </c>
       <c r="S49">
-        <v>4.6518069999999998</v>
+        <v>6.4474282499999997</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -7803,10 +7860,10 @@
         <v>480000</v>
       </c>
       <c r="Y49">
-        <v>1318.5384555000001</v>
+        <v>281.28663899999998</v>
       </c>
       <c r="Z49">
-        <v>197.52049299999999</v>
+        <v>163.28257912500001</v>
       </c>
       <c r="AA49">
         <v>1</v>
@@ -7823,10 +7880,10 @@
         <v>490000</v>
       </c>
       <c r="D50">
-        <v>624.17171350000001</v>
+        <v>332.13208200000003</v>
       </c>
       <c r="E50">
-        <v>93.101400499999997</v>
+        <v>85.069609937500005</v>
       </c>
       <c r="F50">
         <v>490</v>
@@ -7841,13 +7898,13 @@
         <v>490000</v>
       </c>
       <c r="K50">
-        <v>1963.2118190000001</v>
+        <v>285.44579900000002</v>
       </c>
       <c r="L50">
-        <v>241.10506599999999</v>
+        <v>217.30690531249999</v>
       </c>
       <c r="M50">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O50">
         <v>3</v>
@@ -7859,10 +7916,10 @@
         <v>490000</v>
       </c>
       <c r="R50">
-        <v>628.66427150000004</v>
+        <v>333.18655799999999</v>
       </c>
       <c r="S50">
-        <v>3.8274064999999999</v>
+        <v>7.7675210000000003</v>
       </c>
       <c r="T50">
         <v>1</v>
@@ -7877,10 +7934,10 @@
         <v>490000</v>
       </c>
       <c r="Y50">
-        <v>1434.3044215</v>
+        <v>301.41667200000001</v>
       </c>
       <c r="Z50">
-        <v>227.2706215</v>
+        <v>167.5204435</v>
       </c>
       <c r="AA50">
         <v>1</v>
@@ -7897,10 +7954,10 @@
         <v>500000</v>
       </c>
       <c r="D51">
-        <v>625.95674150000002</v>
+        <v>334.586073</v>
       </c>
       <c r="E51">
-        <v>126.209546</v>
+        <v>102.3099634375</v>
       </c>
       <c r="F51">
         <v>500</v>
@@ -7915,13 +7972,13 @@
         <v>500000</v>
       </c>
       <c r="K51">
-        <v>1292.9186890000001</v>
+        <v>285.88052299999998</v>
       </c>
       <c r="L51">
-        <v>232.71926099999999</v>
+        <v>214.20975824999999</v>
       </c>
       <c r="M51">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O51">
         <v>3</v>
@@ -7933,10 +7990,10 @@
         <v>500000</v>
       </c>
       <c r="R51">
-        <v>617.40948749999995</v>
+        <v>330.46650599999998</v>
       </c>
       <c r="S51">
-        <v>3.7546740000000001</v>
+        <v>8.0046533750000002</v>
       </c>
       <c r="T51">
         <v>1</v>
@@ -7951,10 +8008,10 @@
         <v>500000</v>
       </c>
       <c r="Y51">
-        <v>1331.5839874999999</v>
+        <v>293.19108599999998</v>
       </c>
       <c r="Z51">
-        <v>205.80614399999999</v>
+        <v>162.3021556875</v>
       </c>
       <c r="AA51">
         <v>1</v>
@@ -7971,10 +8028,10 @@
         <v>510000</v>
       </c>
       <c r="D52">
-        <v>647.27414050000004</v>
+        <v>342.46365700000001</v>
       </c>
       <c r="E52">
-        <v>97.418578999999994</v>
+        <v>105.85496206249999</v>
       </c>
       <c r="F52">
         <v>510</v>
@@ -7989,13 +8046,13 @@
         <v>510000</v>
       </c>
       <c r="K52">
-        <v>1666.5261384999999</v>
+        <v>288.67113699999999</v>
       </c>
       <c r="L52">
-        <v>240.09091549999999</v>
+        <v>227.06537068750001</v>
       </c>
       <c r="M52">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O52">
         <v>3</v>
@@ -8007,10 +8064,10 @@
         <v>510000</v>
       </c>
       <c r="R52">
-        <v>628.81794850000006</v>
+        <v>357.92760199999998</v>
       </c>
       <c r="S52">
-        <v>6.8534354999999998</v>
+        <v>6.7251245624999996</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -8025,10 +8082,10 @@
         <v>510000</v>
       </c>
       <c r="Y52">
-        <v>1622.9770510000001</v>
+        <v>306.20690400000001</v>
       </c>
       <c r="Z52">
-        <v>236.62614600000001</v>
+        <v>176.68507893750001</v>
       </c>
       <c r="AA52">
         <v>1</v>
@@ -8045,10 +8102,10 @@
         <v>520000</v>
       </c>
       <c r="D53">
-        <v>626.65151400000002</v>
+        <v>334.73541</v>
       </c>
       <c r="E53">
-        <v>103.842804</v>
+        <v>100.9396654375</v>
       </c>
       <c r="F53">
         <v>520</v>
@@ -8063,13 +8120,13 @@
         <v>520000</v>
       </c>
       <c r="K53">
-        <v>1598.889508</v>
+        <v>306.65802200000002</v>
       </c>
       <c r="L53">
-        <v>274.97177199999999</v>
+        <v>225.07706575</v>
       </c>
       <c r="M53">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O53">
         <v>3</v>
@@ -8081,10 +8138,10 @@
         <v>520000</v>
       </c>
       <c r="R53">
-        <v>629.9150965</v>
+        <v>333.38475399999999</v>
       </c>
       <c r="S53">
-        <v>9.4031819999999993</v>
+        <v>7.1233940625000001</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -8099,10 +8156,10 @@
         <v>520000</v>
       </c>
       <c r="Y53">
-        <v>2004.2133595</v>
+        <v>317.13544400000001</v>
       </c>
       <c r="Z53">
-        <v>230.54740100000001</v>
+        <v>179.78171281249999</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -8119,10 +8176,10 @@
         <v>530000</v>
       </c>
       <c r="D54">
-        <v>627.62783200000001</v>
+        <v>324.02629899999999</v>
       </c>
       <c r="E54">
-        <v>94.840237500000001</v>
+        <v>99.421317812500007</v>
       </c>
       <c r="F54">
         <v>530</v>
@@ -8137,13 +8194,13 @@
         <v>530000</v>
       </c>
       <c r="K54">
-        <v>1965.7891340000001</v>
+        <v>298.932884</v>
       </c>
       <c r="L54">
-        <v>295.83825849999999</v>
+        <v>250.6457949375</v>
       </c>
       <c r="M54">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O54">
         <v>3</v>
@@ -8155,10 +8212,10 @@
         <v>530000</v>
       </c>
       <c r="R54">
-        <v>623.97331150000002</v>
+        <v>338.86691400000001</v>
       </c>
       <c r="S54">
-        <v>3.9972135</v>
+        <v>7.3231153124999997</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -8173,10 +8230,10 @@
         <v>530000</v>
       </c>
       <c r="Y54">
-        <v>1949.6592125</v>
+        <v>305.42655400000001</v>
       </c>
       <c r="Z54">
-        <v>257.72519949999997</v>
+        <v>195.06204418749999</v>
       </c>
       <c r="AA54">
         <v>1</v>
@@ -8193,10 +8250,10 @@
         <v>540000</v>
       </c>
       <c r="D55">
-        <v>651.26460899999995</v>
+        <v>318.12768699999998</v>
       </c>
       <c r="E55">
-        <v>102.815016</v>
+        <v>105.7759056875</v>
       </c>
       <c r="F55">
         <v>540</v>
@@ -8211,13 +8268,13 @@
         <v>540000</v>
       </c>
       <c r="K55">
-        <v>14967.06914</v>
+        <v>298.330963</v>
       </c>
       <c r="L55">
-        <v>312.02052950000001</v>
+        <v>258.26149037499999</v>
       </c>
       <c r="M55">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O55">
         <v>3</v>
@@ -8229,10 +8286,10 @@
         <v>540000</v>
       </c>
       <c r="R55">
-        <v>619.69528549999995</v>
+        <v>335.29404299999999</v>
       </c>
       <c r="S55">
-        <v>9.1197300000000006</v>
+        <v>5.5339084999999999</v>
       </c>
       <c r="T55">
         <v>1</v>
@@ -8247,10 +8304,10 @@
         <v>540000</v>
       </c>
       <c r="Y55">
-        <v>2387.5397025000002</v>
+        <v>305.73933399999999</v>
       </c>
       <c r="Z55">
-        <v>303.52034600000002</v>
+        <v>200.81985087499999</v>
       </c>
       <c r="AA55">
         <v>1</v>
@@ -8267,10 +8324,10 @@
         <v>550000</v>
       </c>
       <c r="D56">
-        <v>637.91846950000001</v>
+        <v>326.64050800000001</v>
       </c>
       <c r="E56">
-        <v>101.5370625</v>
+        <v>116.57106706250001</v>
       </c>
       <c r="F56">
         <v>550</v>
@@ -8285,13 +8342,13 @@
         <v>550000</v>
       </c>
       <c r="K56">
-        <v>14447.477821</v>
+        <v>308.59397000000001</v>
       </c>
       <c r="L56">
-        <v>342.873085</v>
+        <v>255.34912593749999</v>
       </c>
       <c r="M56">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O56">
         <v>3</v>
@@ -8303,10 +8360,10 @@
         <v>550000</v>
       </c>
       <c r="R56">
-        <v>621.58691999999996</v>
+        <v>331.77888899999999</v>
       </c>
       <c r="S56">
-        <v>8.6773225000000007</v>
+        <v>6.6304512500000001</v>
       </c>
       <c r="T56">
         <v>1</v>
@@ -8321,10 +8378,10 @@
         <v>550000</v>
       </c>
       <c r="Y56">
-        <v>2756.385366</v>
+        <v>308.04888599999998</v>
       </c>
       <c r="Z56">
-        <v>305.16592100000003</v>
+        <v>202.61928581250001</v>
       </c>
       <c r="AA56">
         <v>1</v>
@@ -8341,10 +8398,10 @@
         <v>560000</v>
       </c>
       <c r="D57">
-        <v>638.1168705</v>
+        <v>348.235457</v>
       </c>
       <c r="E57">
-        <v>101.846763</v>
+        <v>131.12563056249999</v>
       </c>
       <c r="F57">
         <v>560</v>
@@ -8359,13 +8416,13 @@
         <v>560000</v>
       </c>
       <c r="K57">
-        <v>3237.0931890000002</v>
+        <v>301.43259699999999</v>
       </c>
       <c r="L57">
-        <v>365.44218749999999</v>
+        <v>258.81547137500002</v>
       </c>
       <c r="M57">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="O57">
         <v>3</v>
@@ -8377,10 +8434,10 @@
         <v>560000</v>
       </c>
       <c r="R57">
-        <v>638.16306199999997</v>
+        <v>333.23342300000002</v>
       </c>
       <c r="S57">
-        <v>8.7522544999999994</v>
+        <v>6.1165573750000002</v>
       </c>
       <c r="T57">
         <v>1</v>
@@ -8395,10 +8452,10 @@
         <v>560000</v>
       </c>
       <c r="Y57">
-        <v>2987.7680184999999</v>
+        <v>298.24834700000002</v>
       </c>
       <c r="Z57">
-        <v>324.40046899999999</v>
+        <v>211.18028487500001</v>
       </c>
       <c r="AA57">
         <v>1</v>
@@ -8415,10 +8472,10 @@
         <v>570000</v>
       </c>
       <c r="D58">
-        <v>640.88789450000002</v>
+        <v>334.33640700000001</v>
       </c>
       <c r="E58">
-        <v>114.801232</v>
+        <v>119.117294125</v>
       </c>
       <c r="F58">
         <v>570</v>
@@ -8433,13 +8490,13 @@
         <v>570000</v>
       </c>
       <c r="K58">
-        <v>2510.9172225000002</v>
+        <v>289.68619699999999</v>
       </c>
       <c r="L58">
-        <v>370.66867050000002</v>
+        <v>265.46782668750001</v>
       </c>
       <c r="M58">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="O58">
         <v>3</v>
@@ -8451,10 +8508,10 @@
         <v>570000</v>
       </c>
       <c r="R58">
-        <v>627.63120449999997</v>
+        <v>340.16029300000002</v>
       </c>
       <c r="S58">
-        <v>6.6748295000000004</v>
+        <v>6.4180822500000003</v>
       </c>
       <c r="T58">
         <v>1</v>
@@ -8469,10 +8526,10 @@
         <v>570000</v>
       </c>
       <c r="Y58">
-        <v>3826.1516240000001</v>
+        <v>313.06881299999998</v>
       </c>
       <c r="Z58">
-        <v>337.965687</v>
+        <v>210.35432643749999</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -8489,10 +8546,10 @@
         <v>580000</v>
       </c>
       <c r="D59">
-        <v>647.54864699999996</v>
+        <v>315.903595</v>
       </c>
       <c r="E59">
-        <v>129.39277100000001</v>
+        <v>109.0077764375</v>
       </c>
       <c r="F59">
         <v>580</v>
@@ -8507,13 +8564,13 @@
         <v>580000</v>
       </c>
       <c r="K59">
-        <v>2433.1948094999998</v>
+        <v>296.84862600000002</v>
       </c>
       <c r="L59">
-        <v>355.92609449999998</v>
+        <v>276.20878699999997</v>
       </c>
       <c r="M59">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="O59">
         <v>3</v>
@@ -8525,10 +8582,10 @@
         <v>580000</v>
       </c>
       <c r="R59">
-        <v>634.82704049999995</v>
+        <v>356.76766400000002</v>
       </c>
       <c r="S59">
-        <v>4.8182419999999997</v>
+        <v>8.4895861250000006</v>
       </c>
       <c r="T59">
         <v>1</v>
@@ -8543,10 +8600,10 @@
         <v>580000</v>
       </c>
       <c r="Y59">
-        <v>2649.4002489999998</v>
+        <v>317.45549699999998</v>
       </c>
       <c r="Z59">
-        <v>299.92902700000002</v>
+        <v>218.14782081249999</v>
       </c>
       <c r="AA59">
         <v>1</v>
@@ -8563,10 +8620,10 @@
         <v>590000</v>
       </c>
       <c r="D60">
-        <v>644.106899</v>
+        <v>328.06304599999999</v>
       </c>
       <c r="E60">
-        <v>136.59197900000001</v>
+        <v>120.95789768749999</v>
       </c>
       <c r="F60">
         <v>590</v>
@@ -8581,13 +8638,13 @@
         <v>590000</v>
       </c>
       <c r="K60">
-        <v>2679.896033</v>
+        <v>307.621084</v>
       </c>
       <c r="L60">
-        <v>404.02155599999998</v>
+        <v>285.31953287499999</v>
       </c>
       <c r="M60">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -8599,10 +8656,10 @@
         <v>590000</v>
       </c>
       <c r="R60">
-        <v>633.31314599999996</v>
+        <v>335.01900799999999</v>
       </c>
       <c r="S60">
-        <v>5.2618225000000001</v>
+        <v>6.0610547500000003</v>
       </c>
       <c r="T60">
         <v>1</v>
@@ -8617,10 +8674,10 @@
         <v>590000</v>
       </c>
       <c r="Y60">
-        <v>3245.9206684999999</v>
+        <v>298.19309399999997</v>
       </c>
       <c r="Z60">
-        <v>342.51162149999999</v>
+        <v>223.424965625</v>
       </c>
       <c r="AA60">
         <v>1</v>
@@ -8637,10 +8694,10 @@
         <v>600000</v>
       </c>
       <c r="D61">
-        <v>648.1900435</v>
+        <v>320.48492599999997</v>
       </c>
       <c r="E61">
-        <v>141.67270350000001</v>
+        <v>122.21944499999999</v>
       </c>
       <c r="F61">
         <v>600</v>
@@ -8655,13 +8712,13 @@
         <v>600000</v>
       </c>
       <c r="K61">
-        <v>2569.3810400000002</v>
+        <v>302.17699099999999</v>
       </c>
       <c r="L61">
-        <v>431.29906849999998</v>
+        <v>288.67148225</v>
       </c>
       <c r="M61">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="O61">
         <v>3</v>
@@ -8673,10 +8730,10 @@
         <v>600000</v>
       </c>
       <c r="R61">
-        <v>640.49666400000001</v>
+        <v>334.27349900000002</v>
       </c>
       <c r="S61">
-        <v>7.53369</v>
+        <v>6.2379921874999997</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -8691,10 +8748,10 @@
         <v>600000</v>
       </c>
       <c r="Y61">
-        <v>2760.624973</v>
+        <v>296.63180599999998</v>
       </c>
       <c r="Z61">
-        <v>349.26504849999998</v>
+        <v>223.96151506250001</v>
       </c>
       <c r="AA61">
         <v>1</v>
@@ -8711,10 +8768,10 @@
         <v>610000</v>
       </c>
       <c r="D62">
-        <v>646.84448999999995</v>
+        <v>327.82710500000002</v>
       </c>
       <c r="E62">
-        <v>123.3393945</v>
+        <v>115.74078287499999</v>
       </c>
       <c r="F62">
         <v>610</v>
@@ -8729,13 +8786,13 @@
         <v>610000</v>
       </c>
       <c r="K62">
-        <v>3266.5315645000001</v>
+        <v>306.92047600000001</v>
       </c>
       <c r="L62">
-        <v>443.00447250000002</v>
+        <v>290.42971181249999</v>
       </c>
       <c r="M62">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="O62">
         <v>3</v>
@@ -8747,10 +8804,10 @@
         <v>610000</v>
       </c>
       <c r="R62">
-        <v>634.00337300000001</v>
+        <v>346.09459700000002</v>
       </c>
       <c r="S62">
-        <v>9.2178315000000008</v>
+        <v>5.7618210000000003</v>
       </c>
       <c r="T62">
         <v>1</v>
@@ -8765,10 +8822,10 @@
         <v>610000</v>
       </c>
       <c r="Y62">
-        <v>3161.0104845000001</v>
+        <v>300.78700700000002</v>
       </c>
       <c r="Z62">
-        <v>380.88129650000002</v>
+        <v>224.50389337499999</v>
       </c>
       <c r="AA62">
         <v>1</v>
@@ -8785,10 +8842,10 @@
         <v>620000</v>
       </c>
       <c r="D63">
-        <v>650.13197449999996</v>
+        <v>347.91983299999998</v>
       </c>
       <c r="E63">
-        <v>121.8843025</v>
+        <v>127.90945000000001</v>
       </c>
       <c r="F63">
         <v>620</v>
@@ -8803,13 +8860,13 @@
         <v>620000</v>
       </c>
       <c r="K63">
-        <v>54294.022435500003</v>
+        <v>305.306017</v>
       </c>
       <c r="L63">
-        <v>5535.8282865000001</v>
+        <v>290.60378968750001</v>
       </c>
       <c r="M63">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="O63">
         <v>3</v>
@@ -8821,10 +8878,10 @@
         <v>620000</v>
       </c>
       <c r="R63">
-        <v>633.11782349999999</v>
+        <v>334.627161</v>
       </c>
       <c r="S63">
-        <v>11.178091999999999</v>
+        <v>6.5861113749999998</v>
       </c>
       <c r="T63">
         <v>1</v>
@@ -8839,10 +8896,10 @@
         <v>620000</v>
       </c>
       <c r="Y63">
-        <v>60707.069286500002</v>
+        <v>315.96752900000001</v>
       </c>
       <c r="Z63">
-        <v>400.43272949999999</v>
+        <v>236.84847149999999</v>
       </c>
       <c r="AA63">
         <v>1</v>
@@ -8859,10 +8916,10 @@
         <v>630000</v>
       </c>
       <c r="D64">
-        <v>651.21900449999998</v>
+        <v>328.53290399999997</v>
       </c>
       <c r="E64">
-        <v>128.13197450000001</v>
+        <v>122.3688694375</v>
       </c>
       <c r="F64">
         <v>630</v>
@@ -8877,13 +8934,13 @@
         <v>630000</v>
       </c>
       <c r="K64">
-        <v>4075.2596225000002</v>
+        <v>368.84050999999999</v>
       </c>
       <c r="L64">
-        <v>517.596451</v>
+        <v>288.26329612500001</v>
       </c>
       <c r="M64">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O64">
         <v>3</v>
@@ -8895,10 +8952,10 @@
         <v>630000</v>
       </c>
       <c r="R64">
-        <v>648.95168249999995</v>
+        <v>347.46768900000001</v>
       </c>
       <c r="S64">
-        <v>4.0580685000000001</v>
+        <v>5.7010212500000002</v>
       </c>
       <c r="T64">
         <v>1</v>
@@ -8913,10 +8970,10 @@
         <v>630000</v>
       </c>
       <c r="Y64">
-        <v>36615.108292500001</v>
+        <v>307.61122999999998</v>
       </c>
       <c r="Z64">
-        <v>454.35471749999999</v>
+        <v>243.1200255</v>
       </c>
       <c r="AA64">
         <v>1</v>
@@ -8933,10 +8990,10 @@
         <v>640000</v>
       </c>
       <c r="D65">
-        <v>663.2943765</v>
+        <v>336.01497599999999</v>
       </c>
       <c r="E65">
-        <v>147.882249</v>
+        <v>124.9788840625</v>
       </c>
       <c r="F65">
         <v>640</v>
@@ -8951,13 +9008,13 @@
         <v>640000</v>
       </c>
       <c r="K65">
-        <v>66155.104039500002</v>
+        <v>305.057436</v>
       </c>
       <c r="L65">
-        <v>587.68927350000001</v>
+        <v>310.85328881250001</v>
       </c>
       <c r="M65">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="O65">
         <v>3</v>
@@ -8969,10 +9026,10 @@
         <v>640000</v>
       </c>
       <c r="R65">
-        <v>631.14583200000004</v>
+        <v>350.68381799999997</v>
       </c>
       <c r="S65">
-        <v>4.1413595000000001</v>
+        <v>12.290120312499999</v>
       </c>
       <c r="T65">
         <v>1</v>
@@ -8987,10 +9044,10 @@
         <v>640000</v>
       </c>
       <c r="Y65">
-        <v>67314.476867499994</v>
+        <v>300.82959099999999</v>
       </c>
       <c r="Z65">
-        <v>477.33206300000001</v>
+        <v>250.30262475000001</v>
       </c>
       <c r="AA65">
         <v>1</v>
@@ -9007,10 +9064,10 @@
         <v>650000</v>
       </c>
       <c r="D66">
-        <v>650.85856750000005</v>
+        <v>321.20955400000003</v>
       </c>
       <c r="E66">
-        <v>123.013418</v>
+        <v>132.8650355625</v>
       </c>
       <c r="F66">
         <v>650</v>
@@ -9025,13 +9082,13 @@
         <v>650000</v>
       </c>
       <c r="K66">
-        <v>62955.387345000003</v>
+        <v>303.511458</v>
       </c>
       <c r="L66">
-        <v>603.40024900000003</v>
+        <v>307.66682081250002</v>
       </c>
       <c r="M66">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="O66">
         <v>3</v>
@@ -9043,10 +9100,10 @@
         <v>650000</v>
       </c>
       <c r="R66">
-        <v>652.42921049999995</v>
+        <v>369.11384399999997</v>
       </c>
       <c r="S66">
-        <v>3.9164159999999999</v>
+        <v>8.1744055000000007</v>
       </c>
       <c r="T66">
         <v>1</v>
@@ -9061,10 +9118,10 @@
         <v>650000</v>
       </c>
       <c r="Y66">
-        <v>100967.3696025</v>
+        <v>310.42559999999997</v>
       </c>
       <c r="Z66">
-        <v>544.00806499999999</v>
+        <v>255.29402668750001</v>
       </c>
       <c r="AA66">
         <v>1</v>
@@ -9081,10 +9138,10 @@
         <v>660000</v>
       </c>
       <c r="D67">
-        <v>647.08834950000005</v>
+        <v>323.16086999999999</v>
       </c>
       <c r="E67">
-        <v>134.34064050000001</v>
+        <v>122.1891641875</v>
       </c>
       <c r="F67">
         <v>660</v>
@@ -9099,13 +9156,13 @@
         <v>660000</v>
       </c>
       <c r="K67">
-        <v>5645.9046850000004</v>
+        <v>309.29141099999998</v>
       </c>
       <c r="L67">
-        <v>750.39973599999996</v>
+        <v>311.59529681250001</v>
       </c>
       <c r="M67">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="O67">
         <v>3</v>
@@ -9117,10 +9174,10 @@
         <v>660000</v>
       </c>
       <c r="R67">
-        <v>652.20280100000002</v>
+        <v>344.98697900000002</v>
       </c>
       <c r="S67">
-        <v>3.9256544999999998</v>
+        <v>7.5796040624999996</v>
       </c>
       <c r="T67">
         <v>1</v>
@@ -9135,10 +9192,10 @@
         <v>660000</v>
       </c>
       <c r="Y67">
-        <v>32951.758779999996</v>
+        <v>299.98665599999998</v>
       </c>
       <c r="Z67">
-        <v>747.84984250000002</v>
+        <v>270.08365125</v>
       </c>
       <c r="AA67">
         <v>1</v>
@@ -9155,10 +9212,10 @@
         <v>670000</v>
       </c>
       <c r="D68">
-        <v>667.14949850000005</v>
+        <v>331.42657600000001</v>
       </c>
       <c r="E68">
-        <v>135.7191875</v>
+        <v>128.2715548125</v>
       </c>
       <c r="F68">
         <v>670</v>
@@ -9173,13 +9230,13 @@
         <v>670000</v>
       </c>
       <c r="K68">
-        <v>4935.9521960000002</v>
+        <v>304.402784</v>
       </c>
       <c r="L68">
-        <v>1183.50055</v>
+        <v>314.45883068749998</v>
       </c>
       <c r="M68">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="O68">
         <v>3</v>
@@ -9191,10 +9248,10 @@
         <v>670000</v>
       </c>
       <c r="R68">
-        <v>648.25676350000003</v>
+        <v>347.49323299999998</v>
       </c>
       <c r="S68">
-        <v>3.957182</v>
+        <v>5.9552919375000002</v>
       </c>
       <c r="T68">
         <v>1</v>
@@ -9209,10 +9266,10 @@
         <v>670000</v>
       </c>
       <c r="Y68">
-        <v>23862.587873</v>
+        <v>306.820762</v>
       </c>
       <c r="Z68">
-        <v>853.21856400000001</v>
+        <v>273.54543262499999</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -9229,10 +9286,10 @@
         <v>680000</v>
       </c>
       <c r="D69">
-        <v>665.1600555</v>
+        <v>390.08211999999997</v>
       </c>
       <c r="E69">
-        <v>136.65459300000001</v>
+        <v>123.52263781249999</v>
       </c>
       <c r="F69">
         <v>680</v>
@@ -9247,13 +9304,13 @@
         <v>680000</v>
       </c>
       <c r="K69">
-        <v>3992.1529435000002</v>
+        <v>316.64784300000002</v>
       </c>
       <c r="L69">
-        <v>985.55920500000002</v>
+        <v>327.771973</v>
       </c>
       <c r="M69">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="O69">
         <v>3</v>
@@ -9265,10 +9322,10 @@
         <v>680000</v>
       </c>
       <c r="R69">
-        <v>651.641616</v>
+        <v>341.98200900000001</v>
       </c>
       <c r="S69">
-        <v>3.9947214999999998</v>
+        <v>8.1699696875000001</v>
       </c>
       <c r="T69">
         <v>1</v>
@@ -9283,10 +9340,10 @@
         <v>680000</v>
       </c>
       <c r="Y69">
-        <v>18080.314246000002</v>
+        <v>307.27745199999998</v>
       </c>
       <c r="Z69">
-        <v>641.98973550000005</v>
+        <v>271.39971150000002</v>
       </c>
       <c r="AA69">
         <v>1</v>
@@ -9303,10 +9360,10 @@
         <v>690000</v>
       </c>
       <c r="D70">
-        <v>673.75042150000002</v>
+        <v>336.41623600000003</v>
       </c>
       <c r="E70">
-        <v>136.78275550000001</v>
+        <v>133.43514675</v>
       </c>
       <c r="F70">
         <v>690</v>
@@ -9321,13 +9378,13 @@
         <v>690000</v>
       </c>
       <c r="K70">
-        <v>67606.528191000005</v>
+        <v>335.89317799999998</v>
       </c>
       <c r="L70">
-        <v>964.77381049999997</v>
+        <v>332.4463061875</v>
       </c>
       <c r="M70">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="O70">
         <v>3</v>
@@ -9339,10 +9396,10 @@
         <v>690000</v>
       </c>
       <c r="R70">
-        <v>657.81156999999996</v>
+        <v>336.70927799999998</v>
       </c>
       <c r="S70">
-        <v>4.1593954999999996</v>
+        <v>6.6947703750000001</v>
       </c>
       <c r="T70">
         <v>1</v>
@@ -9357,10 +9414,10 @@
         <v>690000</v>
       </c>
       <c r="Y70">
-        <v>48587.6197665</v>
+        <v>305.422595</v>
       </c>
       <c r="Z70">
-        <v>793.56111150000004</v>
+        <v>283.20596206250002</v>
       </c>
       <c r="AA70">
         <v>1</v>
@@ -9377,10 +9434,10 @@
         <v>700000</v>
       </c>
       <c r="D71">
-        <v>680.2231835</v>
+        <v>368.08473700000002</v>
       </c>
       <c r="E71">
-        <v>143.73399800000001</v>
+        <v>134.45096512500001</v>
       </c>
       <c r="F71">
         <v>700</v>
@@ -9395,13 +9452,13 @@
         <v>700000</v>
       </c>
       <c r="K71">
-        <v>6523.5895595000002</v>
+        <v>367.33858199999997</v>
       </c>
       <c r="L71">
-        <v>1121.891194</v>
+        <v>352.27084768750001</v>
       </c>
       <c r="M71">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="O71">
         <v>3</v>
@@ -9413,10 +9470,10 @@
         <v>700000</v>
       </c>
       <c r="R71">
-        <v>668.92895350000003</v>
+        <v>376.69372299999998</v>
       </c>
       <c r="S71">
-        <v>4.231249</v>
+        <v>8.9746290000000002</v>
       </c>
       <c r="T71">
         <v>1</v>
@@ -9431,10 +9488,10 @@
         <v>700000</v>
       </c>
       <c r="Y71">
-        <v>38243.590732500001</v>
+        <v>320.29676000000001</v>
       </c>
       <c r="Z71">
-        <v>905.37488050000002</v>
+        <v>296.50302912500001</v>
       </c>
       <c r="AA71">
         <v>1</v>
@@ -9451,10 +9508,10 @@
         <v>710000</v>
       </c>
       <c r="D72">
-        <v>676.59109950000004</v>
+        <v>352.68754200000001</v>
       </c>
       <c r="E72">
-        <v>142.73231150000001</v>
+        <v>143.35531756250001</v>
       </c>
       <c r="F72">
         <v>710</v>
@@ -9469,13 +9526,13 @@
         <v>710000</v>
       </c>
       <c r="K72">
-        <v>36275.291150500001</v>
+        <v>322.04445399999997</v>
       </c>
       <c r="L72">
-        <v>1079.655107</v>
+        <v>353.9263753125</v>
       </c>
       <c r="M72">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="O72">
         <v>3</v>
@@ -9487,10 +9544,10 @@
         <v>710000</v>
       </c>
       <c r="R72">
-        <v>652.05469600000004</v>
+        <v>367.652535</v>
       </c>
       <c r="S72">
-        <v>4.1687810000000001</v>
+        <v>6.7173893749999998</v>
       </c>
       <c r="T72">
         <v>1</v>
@@ -9505,10 +9562,10 @@
         <v>710000</v>
       </c>
       <c r="Y72">
-        <v>5230.2454724999998</v>
+        <v>329.48526099999998</v>
       </c>
       <c r="Z72">
-        <v>839.49527049999995</v>
+        <v>303.04687200000001</v>
       </c>
       <c r="AA72">
         <v>1</v>
@@ -9525,10 +9582,10 @@
         <v>720000</v>
       </c>
       <c r="D73">
-        <v>677.18762349999997</v>
+        <v>359.321956</v>
       </c>
       <c r="E73">
-        <v>143.355378</v>
+        <v>140.9296273125</v>
       </c>
       <c r="F73">
         <v>720</v>
@@ -9543,13 +9600,13 @@
         <v>720000</v>
       </c>
       <c r="K73">
-        <v>57708.502382999999</v>
+        <v>515.860366</v>
       </c>
       <c r="L73">
-        <v>1052.5616245000001</v>
+        <v>650.04244437499995</v>
       </c>
       <c r="M73">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="O73">
         <v>3</v>
@@ -9561,10 +9618,10 @@
         <v>720000</v>
       </c>
       <c r="R73">
-        <v>664.30192799999998</v>
+        <v>347.24949099999998</v>
       </c>
       <c r="S73">
-        <v>4.1657014999999999</v>
+        <v>8.9934902500000007</v>
       </c>
       <c r="T73">
         <v>1</v>
@@ -9579,10 +9636,10 @@
         <v>720000</v>
       </c>
       <c r="Y73">
-        <v>6562.6595790000001</v>
+        <v>306.79952800000001</v>
       </c>
       <c r="Z73">
-        <v>909.04934400000002</v>
+        <v>314.07392362500002</v>
       </c>
       <c r="AA73">
         <v>1</v>
@@ -9599,14 +9656,32 @@
         <v>730000</v>
       </c>
       <c r="D74">
-        <v>674.90270550000002</v>
+        <v>349.06795199999999</v>
       </c>
       <c r="E74">
-        <v>156.68245450000001</v>
+        <v>150.70997843750001</v>
       </c>
       <c r="F74">
         <v>730</v>
       </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>730</v>
+      </c>
+      <c r="J74">
+        <v>730000</v>
+      </c>
+      <c r="K74">
+        <v>313.161137</v>
+      </c>
+      <c r="L74">
+        <v>462.34193493750001</v>
+      </c>
+      <c r="M74">
+        <v>730</v>
+      </c>
       <c r="O74">
         <v>3</v>
       </c>
@@ -9617,10 +9692,10 @@
         <v>730000</v>
       </c>
       <c r="R74">
-        <v>659.11107849999996</v>
+        <v>341.70286900000002</v>
       </c>
       <c r="S74">
-        <v>4.7855420000000004</v>
+        <v>9.7102948125000008</v>
       </c>
       <c r="T74">
         <v>1</v>
@@ -9635,10 +9710,10 @@
         <v>730000</v>
       </c>
       <c r="Y74">
-        <v>156598.24869850001</v>
+        <v>469.592061</v>
       </c>
       <c r="Z74">
-        <v>3122.2419534999999</v>
+        <v>370.63456024999999</v>
       </c>
       <c r="AA74">
         <v>1</v>
@@ -9655,14 +9730,32 @@
         <v>740000</v>
       </c>
       <c r="D75">
-        <v>684.51851299999998</v>
+        <v>404.29556300000002</v>
       </c>
       <c r="E75">
-        <v>153.38837150000001</v>
+        <v>148.1080839375</v>
       </c>
       <c r="F75">
         <v>740</v>
       </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>740</v>
+      </c>
+      <c r="J75">
+        <v>740000</v>
+      </c>
+      <c r="K75">
+        <v>306.588956</v>
+      </c>
+      <c r="L75">
+        <v>373.19983187499997</v>
+      </c>
+      <c r="M75">
+        <v>740</v>
+      </c>
       <c r="O75">
         <v>3</v>
       </c>
@@ -9673,10 +9766,10 @@
         <v>740000</v>
       </c>
       <c r="R75">
-        <v>663.6075955</v>
+        <v>371.99267600000002</v>
       </c>
       <c r="S75">
-        <v>4.1775789999999997</v>
+        <v>6.8922004374999997</v>
       </c>
       <c r="T75">
         <v>1</v>
@@ -9691,10 +9784,10 @@
         <v>740000</v>
       </c>
       <c r="Y75">
-        <v>130917.2395335</v>
+        <v>341.08490599999999</v>
       </c>
       <c r="Z75">
-        <v>61980.327590000001</v>
+        <v>366.68348368749997</v>
       </c>
       <c r="AA75">
         <v>1</v>
@@ -9711,14 +9804,32 @@
         <v>750000</v>
       </c>
       <c r="D76">
-        <v>700.87073899999996</v>
+        <v>341.347916</v>
       </c>
       <c r="E76">
-        <v>152.1409195</v>
+        <v>147.28789943749999</v>
       </c>
       <c r="F76">
         <v>750</v>
       </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>750</v>
+      </c>
+      <c r="J76">
+        <v>750000</v>
+      </c>
+      <c r="K76">
+        <v>318.933582</v>
+      </c>
+      <c r="L76">
+        <v>460.51834137499998</v>
+      </c>
+      <c r="M76">
+        <v>750</v>
+      </c>
       <c r="O76">
         <v>3</v>
       </c>
@@ -9729,12 +9840,30 @@
         <v>750000</v>
       </c>
       <c r="R76">
-        <v>684.31145949999996</v>
+        <v>354.73912899999999</v>
       </c>
       <c r="S76">
-        <v>4.1846174999999999</v>
+        <v>7.8609846250000004</v>
       </c>
       <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>750</v>
+      </c>
+      <c r="X76">
+        <v>750000</v>
+      </c>
+      <c r="Y76">
+        <v>401.43318299999999</v>
+      </c>
+      <c r="Z76">
+        <v>338.14199337500003</v>
+      </c>
+      <c r="AA76">
         <v>1</v>
       </c>
     </row>
@@ -9749,14 +9878,32 @@
         <v>760000</v>
       </c>
       <c r="D77">
-        <v>669.37092150000001</v>
+        <v>339.74812200000002</v>
       </c>
       <c r="E77">
-        <v>157.753208</v>
+        <v>167.31164899999999</v>
       </c>
       <c r="F77">
         <v>760</v>
       </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>760</v>
+      </c>
+      <c r="J77">
+        <v>760000</v>
+      </c>
+      <c r="K77">
+        <v>889.387113</v>
+      </c>
+      <c r="L77">
+        <v>400.44733106249998</v>
+      </c>
+      <c r="M77">
+        <v>760</v>
+      </c>
       <c r="O77">
         <v>3</v>
       </c>
@@ -9767,12 +9914,30 @@
         <v>760000</v>
       </c>
       <c r="R77">
-        <v>666.29225050000002</v>
+        <v>344.273731</v>
       </c>
       <c r="S77">
-        <v>4.307207</v>
+        <v>8.5234229374999995</v>
       </c>
       <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>760</v>
+      </c>
+      <c r="X77">
+        <v>760000</v>
+      </c>
+      <c r="Y77">
+        <v>310.36703199999999</v>
+      </c>
+      <c r="Z77">
+        <v>635.47162249999997</v>
+      </c>
+      <c r="AA77">
         <v>1</v>
       </c>
     </row>
@@ -9787,14 +9952,32 @@
         <v>770000</v>
       </c>
       <c r="D78">
-        <v>688.10792549999996</v>
+        <v>339.503559</v>
       </c>
       <c r="E78">
-        <v>161.91729599999999</v>
+        <v>151.70820018750001</v>
       </c>
       <c r="F78">
         <v>770</v>
       </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>770</v>
+      </c>
+      <c r="J78">
+        <v>770000</v>
+      </c>
+      <c r="K78">
+        <v>477.232707</v>
+      </c>
+      <c r="L78">
+        <v>462.48870149999999</v>
+      </c>
+      <c r="M78">
+        <v>770</v>
+      </c>
       <c r="O78">
         <v>3</v>
       </c>
@@ -9805,12 +9988,30 @@
         <v>770000</v>
       </c>
       <c r="R78">
-        <v>726.89024099999995</v>
+        <v>340.80749500000002</v>
       </c>
       <c r="S78">
-        <v>4.4671894999999999</v>
+        <v>6.5138738125</v>
       </c>
       <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>770</v>
+      </c>
+      <c r="X78">
+        <v>770000</v>
+      </c>
+      <c r="Y78">
+        <v>304.48985800000003</v>
+      </c>
+      <c r="Z78">
+        <v>364.88293068749999</v>
+      </c>
+      <c r="AA78">
         <v>1</v>
       </c>
     </row>
@@ -9825,14 +10026,32 @@
         <v>780000</v>
       </c>
       <c r="D79">
-        <v>680.80665699999997</v>
+        <v>336.838144</v>
       </c>
       <c r="E79">
-        <v>164.01319749999999</v>
+        <v>158.461552625</v>
       </c>
       <c r="F79">
         <v>780</v>
       </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>780</v>
+      </c>
+      <c r="J79">
+        <v>780000</v>
+      </c>
+      <c r="K79">
+        <v>317.60932000000003</v>
+      </c>
+      <c r="L79">
+        <v>499.55429293750001</v>
+      </c>
+      <c r="M79">
+        <v>780</v>
+      </c>
       <c r="O79">
         <v>3</v>
       </c>
@@ -9843,12 +10062,30 @@
         <v>780000</v>
       </c>
       <c r="R79">
-        <v>660.11584400000004</v>
+        <v>362.85388499999999</v>
       </c>
       <c r="S79">
-        <v>5.3525919999999996</v>
+        <v>6.8067286874999997</v>
       </c>
       <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>780</v>
+      </c>
+      <c r="X79">
+        <v>780000</v>
+      </c>
+      <c r="Y79">
+        <v>332.18586900000003</v>
+      </c>
+      <c r="Z79">
+        <v>396.65273587500002</v>
+      </c>
+      <c r="AA79">
         <v>1</v>
       </c>
     </row>
@@ -9863,14 +10100,32 @@
         <v>790000</v>
       </c>
       <c r="D80">
-        <v>676.84742300000005</v>
+        <v>360.31457999999998</v>
       </c>
       <c r="E80">
-        <v>162.08182450000001</v>
+        <v>161.9273665625</v>
       </c>
       <c r="F80">
         <v>790</v>
       </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>790</v>
+      </c>
+      <c r="J80">
+        <v>790000</v>
+      </c>
+      <c r="K80">
+        <v>1310.226523</v>
+      </c>
+      <c r="L80">
+        <v>488.45833981250001</v>
+      </c>
+      <c r="M80">
+        <v>790</v>
+      </c>
       <c r="O80">
         <v>3</v>
       </c>
@@ -9881,16 +10136,34 @@
         <v>790000</v>
       </c>
       <c r="R80">
-        <v>667.13219500000002</v>
+        <v>342.03051699999997</v>
       </c>
       <c r="S80">
-        <v>4.2120389999999999</v>
+        <v>7.4037113750000003</v>
       </c>
       <c r="T80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>790</v>
+      </c>
+      <c r="X80">
+        <v>790000</v>
+      </c>
+      <c r="Y80">
+        <v>570.40813200000002</v>
+      </c>
+      <c r="Z80">
+        <v>398.39335043749998</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -9901,14 +10174,32 @@
         <v>800000</v>
       </c>
       <c r="D81">
-        <v>696.05352249999999</v>
+        <v>367.93804</v>
       </c>
       <c r="E81">
-        <v>171.80101149999999</v>
+        <v>175.23612800000001</v>
       </c>
       <c r="F81">
         <v>800</v>
       </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>800</v>
+      </c>
+      <c r="J81">
+        <v>800000</v>
+      </c>
+      <c r="K81">
+        <v>1393.472573</v>
+      </c>
+      <c r="L81">
+        <v>911.33546118749996</v>
+      </c>
+      <c r="M81">
+        <v>800</v>
+      </c>
       <c r="O81">
         <v>3</v>
       </c>
@@ -9919,16 +10210,34 @@
         <v>800000</v>
       </c>
       <c r="R81">
-        <v>665.62005999999997</v>
+        <v>338.04406799999998</v>
       </c>
       <c r="S81">
-        <v>4.2896105000000002</v>
+        <v>6.3138041249999999</v>
       </c>
       <c r="T81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>800</v>
+      </c>
+      <c r="X81">
+        <v>800000</v>
+      </c>
+      <c r="Y81">
+        <v>590.90059599999995</v>
+      </c>
+      <c r="Z81">
+        <v>472.18279274999998</v>
+      </c>
+      <c r="AA81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -9939,14 +10248,32 @@
         <v>810000</v>
       </c>
       <c r="D82">
-        <v>702.91707599999995</v>
+        <v>340.73209400000002</v>
       </c>
       <c r="E82">
-        <v>190.54666800000001</v>
+        <v>170.19488737500001</v>
       </c>
       <c r="F82">
         <v>810</v>
       </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>810</v>
+      </c>
+      <c r="J82">
+        <v>810000</v>
+      </c>
+      <c r="K82">
+        <v>584.52960299999995</v>
+      </c>
+      <c r="L82">
+        <v>904.03945562499996</v>
+      </c>
+      <c r="M82">
+        <v>810</v>
+      </c>
       <c r="O82">
         <v>3</v>
       </c>
@@ -9957,16 +10284,34 @@
         <v>810000</v>
       </c>
       <c r="R82">
-        <v>664.95373549999999</v>
+        <v>344.83427</v>
       </c>
       <c r="S82">
-        <v>4.2261160000000002</v>
+        <v>8.2816348125000001</v>
       </c>
       <c r="T82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>810</v>
+      </c>
+      <c r="X82">
+        <v>810000</v>
+      </c>
+      <c r="Y82">
+        <v>553.76861799999995</v>
+      </c>
+      <c r="Z82">
+        <v>664.28481512500002</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -9977,14 +10322,32 @@
         <v>820000</v>
       </c>
       <c r="D83">
-        <v>684.20426699999996</v>
+        <v>340.74203599999998</v>
       </c>
       <c r="E83">
-        <v>174.431557</v>
+        <v>184.77216150000001</v>
       </c>
       <c r="F83">
         <v>820</v>
       </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>820</v>
+      </c>
+      <c r="J83">
+        <v>820000</v>
+      </c>
+      <c r="K83">
+        <v>1216.6292490000001</v>
+      </c>
+      <c r="L83">
+        <v>927.06949118750003</v>
+      </c>
+      <c r="M83">
+        <v>820</v>
+      </c>
       <c r="O83">
         <v>3</v>
       </c>
@@ -9995,16 +10358,34 @@
         <v>820000</v>
       </c>
       <c r="R83">
-        <v>687.19554200000005</v>
+        <v>350.48216100000002</v>
       </c>
       <c r="S83">
-        <v>4.3860985000000001</v>
+        <v>6.0296008749999999</v>
       </c>
       <c r="T83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>820</v>
+      </c>
+      <c r="X83">
+        <v>820000</v>
+      </c>
+      <c r="Y83">
+        <v>865.43489499999998</v>
+      </c>
+      <c r="Z83">
+        <v>500.64590500000003</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -10015,14 +10396,32 @@
         <v>830000</v>
       </c>
       <c r="D84">
-        <v>699.03775949999999</v>
+        <v>336.304058</v>
       </c>
       <c r="E84">
-        <v>204.8013785</v>
+        <v>200.84318475000001</v>
       </c>
       <c r="F84">
         <v>830</v>
       </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>830</v>
+      </c>
+      <c r="J84">
+        <v>830000</v>
+      </c>
+      <c r="K84">
+        <v>586.48652000000004</v>
+      </c>
+      <c r="L84">
+        <v>791.83357162499999</v>
+      </c>
+      <c r="M84">
+        <v>830</v>
+      </c>
       <c r="O84">
         <v>3</v>
       </c>
@@ -10033,16 +10432,34 @@
         <v>830000</v>
       </c>
       <c r="R84">
-        <v>684.75445349999995</v>
+        <v>350.90204499999999</v>
       </c>
       <c r="S84">
-        <v>4.4242245000000002</v>
+        <v>7.1157688749999997</v>
       </c>
       <c r="T84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>830</v>
+      </c>
+      <c r="X84">
+        <v>830000</v>
+      </c>
+      <c r="Y84">
+        <v>1202.5710079999999</v>
+      </c>
+      <c r="Z84">
+        <v>761.40508499999999</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -10053,14 +10470,32 @@
         <v>840000</v>
       </c>
       <c r="D85">
-        <v>699.30918699999995</v>
+        <v>343.44150000000002</v>
       </c>
       <c r="E85">
-        <v>189.69924499999999</v>
+        <v>169.85409999999999</v>
       </c>
       <c r="F85">
         <v>840</v>
       </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>840</v>
+      </c>
+      <c r="J85">
+        <v>840000</v>
+      </c>
+      <c r="K85">
+        <v>1022.411753</v>
+      </c>
+      <c r="L85">
+        <v>985.12220906250002</v>
+      </c>
+      <c r="M85">
+        <v>840</v>
+      </c>
       <c r="O85">
         <v>3</v>
       </c>
@@ -10071,16 +10506,34 @@
         <v>840000</v>
       </c>
       <c r="R85">
-        <v>687.93709249999995</v>
+        <v>368.19911400000001</v>
       </c>
       <c r="S85">
-        <v>4.4541389999999996</v>
+        <v>6.1742594374999999</v>
       </c>
       <c r="T85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>840</v>
+      </c>
+      <c r="X85">
+        <v>840000</v>
+      </c>
+      <c r="Y85">
+        <v>1353.4618800000001</v>
+      </c>
+      <c r="Z85">
+        <v>620.21695275000002</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -10091,14 +10544,32 @@
         <v>850000</v>
       </c>
       <c r="D86">
-        <v>700.11408449999999</v>
+        <v>333.983566</v>
       </c>
       <c r="E86">
-        <v>183.19084899999999</v>
+        <v>177.13164756250001</v>
       </c>
       <c r="F86">
         <v>850</v>
       </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>850</v>
+      </c>
+      <c r="J86">
+        <v>850000</v>
+      </c>
+      <c r="K86">
+        <v>436.81954999999999</v>
+      </c>
+      <c r="L86">
+        <v>1084.9577981875</v>
+      </c>
+      <c r="M86">
+        <v>850</v>
+      </c>
       <c r="O86">
         <v>3</v>
       </c>
@@ -10109,16 +10580,34 @@
         <v>850000</v>
       </c>
       <c r="R86">
-        <v>681.06034150000005</v>
+        <v>339.06948</v>
       </c>
       <c r="S86">
-        <v>4.3712885000000004</v>
+        <v>5.8309609375000004</v>
       </c>
       <c r="T86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>850</v>
+      </c>
+      <c r="X86">
+        <v>850000</v>
+      </c>
+      <c r="Y86">
+        <v>807.04458999999997</v>
+      </c>
+      <c r="Z86">
+        <v>740.81758462499999</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -10129,14 +10618,32 @@
         <v>860000</v>
       </c>
       <c r="D87">
-        <v>714.44402100000002</v>
+        <v>363.59288400000003</v>
       </c>
       <c r="E87">
-        <v>195.44262800000001</v>
+        <v>191.22879137499999</v>
       </c>
       <c r="F87">
         <v>860</v>
       </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>860</v>
+      </c>
+      <c r="J87">
+        <v>860000</v>
+      </c>
+      <c r="K87">
+        <v>531.50822400000004</v>
+      </c>
+      <c r="L87">
+        <v>984.77643606250001</v>
+      </c>
+      <c r="M87">
+        <v>860</v>
+      </c>
       <c r="O87">
         <v>3</v>
       </c>
@@ -10147,16 +10654,34 @@
         <v>860000</v>
       </c>
       <c r="R87">
-        <v>679.11723749999999</v>
+        <v>342.987303</v>
       </c>
       <c r="S87">
-        <v>4.8933204999999997</v>
+        <v>5.1613005625000001</v>
       </c>
       <c r="T87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>860</v>
+      </c>
+      <c r="X87">
+        <v>860000</v>
+      </c>
+      <c r="Y87">
+        <v>501.45600000000002</v>
+      </c>
+      <c r="Z87">
+        <v>870.50234756249995</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -10167,14 +10692,32 @@
         <v>870000</v>
       </c>
       <c r="D88">
-        <v>782.69345250000003</v>
+        <v>330.97020800000001</v>
       </c>
       <c r="E88">
-        <v>198.50766150000001</v>
+        <v>185.20093175</v>
       </c>
       <c r="F88">
         <v>870</v>
       </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>870</v>
+      </c>
+      <c r="J88">
+        <v>870000</v>
+      </c>
+      <c r="K88">
+        <v>16098.372315000001</v>
+      </c>
+      <c r="L88">
+        <v>1379.5269801249999</v>
+      </c>
+      <c r="M88">
+        <v>870</v>
+      </c>
       <c r="O88">
         <v>3</v>
       </c>
@@ -10185,16 +10728,34 @@
         <v>870000</v>
       </c>
       <c r="R88">
-        <v>882.27421349999997</v>
+        <v>339.53487999999999</v>
       </c>
       <c r="S88">
-        <v>5.8853289999999996</v>
+        <v>5.0750040624999997</v>
       </c>
       <c r="T88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>870</v>
+      </c>
+      <c r="X88">
+        <v>870000</v>
+      </c>
+      <c r="Y88">
+        <v>553.98039300000005</v>
+      </c>
+      <c r="Z88">
+        <v>603.05431768749997</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -10205,14 +10766,32 @@
         <v>880000</v>
       </c>
       <c r="D89">
-        <v>721.26490200000001</v>
+        <v>337.83173599999998</v>
       </c>
       <c r="E89">
-        <v>193.66038599999999</v>
+        <v>184.66566556250001</v>
       </c>
       <c r="F89">
         <v>880</v>
       </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>880</v>
+      </c>
+      <c r="J89">
+        <v>880000</v>
+      </c>
+      <c r="K89">
+        <v>571.48213999999996</v>
+      </c>
+      <c r="L89">
+        <v>977.63480381249997</v>
+      </c>
+      <c r="M89">
+        <v>880</v>
+      </c>
       <c r="O89">
         <v>3</v>
       </c>
@@ -10223,16 +10802,16 @@
         <v>880000</v>
       </c>
       <c r="R89">
-        <v>703.58266749999996</v>
+        <v>390.08431999999999</v>
       </c>
       <c r="S89">
-        <v>4.4943179999999998</v>
+        <v>5.7244465624999998</v>
       </c>
       <c r="T89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -10243,14 +10822,32 @@
         <v>890000</v>
       </c>
       <c r="D90">
-        <v>847.65100099999995</v>
+        <v>342.313647</v>
       </c>
       <c r="E90">
-        <v>370.09898099999998</v>
+        <v>178.05436893749999</v>
       </c>
       <c r="F90">
         <v>890</v>
       </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>890</v>
+      </c>
+      <c r="J90">
+        <v>890000</v>
+      </c>
+      <c r="K90">
+        <v>523.44250299999999</v>
+      </c>
+      <c r="L90">
+        <v>1127.7487344374999</v>
+      </c>
+      <c r="M90">
+        <v>890</v>
+      </c>
       <c r="O90">
         <v>3</v>
       </c>
@@ -10261,16 +10858,16 @@
         <v>890000</v>
       </c>
       <c r="R90">
-        <v>685.70789649999995</v>
+        <v>386.27744300000001</v>
       </c>
       <c r="S90">
-        <v>4.3894715</v>
+        <v>5.8859136875000004</v>
       </c>
       <c r="T90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -10281,14 +10878,32 @@
         <v>900000</v>
       </c>
       <c r="D91">
-        <v>705.31842500000005</v>
+        <v>333.67603600000001</v>
       </c>
       <c r="E91">
-        <v>197.33103650000001</v>
+        <v>176.97943699999999</v>
       </c>
       <c r="F91">
         <v>900</v>
       </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>900</v>
+      </c>
+      <c r="J91">
+        <v>900000</v>
+      </c>
+      <c r="K91">
+        <v>509.12183900000002</v>
+      </c>
+      <c r="L91">
+        <v>1339.5487309375001</v>
+      </c>
+      <c r="M91">
+        <v>900</v>
+      </c>
       <c r="O91">
         <v>3</v>
       </c>
@@ -10299,16 +10914,16 @@
         <v>900000</v>
       </c>
       <c r="R91">
-        <v>680.97778400000004</v>
+        <v>343.90578599999998</v>
       </c>
       <c r="S91">
-        <v>4.7779160000000003</v>
+        <v>8.2612337500000006</v>
       </c>
       <c r="T91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -10319,10 +10934,10 @@
         <v>910000</v>
       </c>
       <c r="D92">
-        <v>702.35369100000003</v>
+        <v>339.60019299999999</v>
       </c>
       <c r="E92">
-        <v>201.15507049999999</v>
+        <v>182.4947775</v>
       </c>
       <c r="F92">
         <v>910</v>
@@ -10337,16 +10952,16 @@
         <v>910000</v>
       </c>
       <c r="R92">
-        <v>688.06100149999997</v>
+        <v>361.32814300000001</v>
       </c>
       <c r="S92">
-        <v>4.5561995</v>
+        <v>6.4108970000000003</v>
       </c>
       <c r="T92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -10357,10 +10972,10 @@
         <v>920000</v>
       </c>
       <c r="D93">
-        <v>718.22728900000004</v>
+        <v>373.127363</v>
       </c>
       <c r="E93">
-        <v>203.4402815</v>
+        <v>191.92169387499999</v>
       </c>
       <c r="F93">
         <v>920</v>
@@ -10375,16 +10990,16 @@
         <v>920000</v>
       </c>
       <c r="R93">
-        <v>694.34166749999997</v>
+        <v>344.42825800000003</v>
       </c>
       <c r="S93">
-        <v>4.4343430000000001</v>
+        <v>6.77113225</v>
       </c>
       <c r="T93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -10395,10 +11010,10 @@
         <v>930000</v>
       </c>
       <c r="D94">
-        <v>711.02206899999999</v>
+        <v>360.71959500000003</v>
       </c>
       <c r="E94">
-        <v>210.98438350000001</v>
+        <v>191.19431306249999</v>
       </c>
       <c r="F94">
         <v>930</v>
@@ -10413,16 +11028,16 @@
         <v>930000</v>
       </c>
       <c r="R94">
-        <v>690.55429300000003</v>
+        <v>352.232934</v>
       </c>
       <c r="S94">
-        <v>4.6478479999999998</v>
+        <v>5.6309096875</v>
       </c>
       <c r="T94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -10433,10 +11048,10 @@
         <v>940000</v>
       </c>
       <c r="D95">
-        <v>708.52379199999996</v>
+        <v>361.76887900000003</v>
       </c>
       <c r="E95">
-        <v>224.8183885</v>
+        <v>188.1835176875</v>
       </c>
       <c r="F95">
         <v>940</v>
@@ -10451,16 +11066,16 @@
         <v>940000</v>
       </c>
       <c r="R95">
-        <v>705.80658400000004</v>
+        <v>350.414942</v>
       </c>
       <c r="S95">
-        <v>5.569763</v>
+        <v>7.5310118749999999</v>
       </c>
       <c r="T95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -10471,10 +11086,10 @@
         <v>950000</v>
       </c>
       <c r="D96">
-        <v>723.96539299999995</v>
+        <v>374.896818</v>
       </c>
       <c r="E96">
-        <v>215.79690600000001</v>
+        <v>205.10815887499999</v>
       </c>
       <c r="F96">
         <v>950</v>
@@ -10489,10 +11104,10 @@
         <v>950000</v>
       </c>
       <c r="R96">
-        <v>666.84991600000001</v>
+        <v>338.52929399999999</v>
       </c>
       <c r="S96">
-        <v>4.6350904999999996</v>
+        <v>5.1417244374999997</v>
       </c>
       <c r="T96">
         <v>1</v>
@@ -10509,10 +11124,10 @@
         <v>960000</v>
       </c>
       <c r="D97">
-        <v>718.38448549999998</v>
+        <v>416.01682899999997</v>
       </c>
       <c r="E97">
-        <v>227.93679900000001</v>
+        <v>223.59074025000001</v>
       </c>
       <c r="F97">
         <v>960</v>
@@ -10527,10 +11142,10 @@
         <v>960000</v>
       </c>
       <c r="R97">
-        <v>690.90461149999999</v>
+        <v>338.02697000000001</v>
       </c>
       <c r="S97">
-        <v>5.7359045000000002</v>
+        <v>7.4608636874999998</v>
       </c>
       <c r="T97">
         <v>1</v>
@@ -10547,10 +11162,10 @@
         <v>970000</v>
       </c>
       <c r="D98">
-        <v>796.08549049999999</v>
+        <v>359.80867799999999</v>
       </c>
       <c r="E98">
-        <v>235.33147550000001</v>
+        <v>198.25058343750001</v>
       </c>
       <c r="F98">
         <v>970</v>
@@ -10565,10 +11180,10 @@
         <v>970000</v>
       </c>
       <c r="R98">
-        <v>692.07742499999995</v>
+        <v>361.18649099999999</v>
       </c>
       <c r="S98">
-        <v>4.8296799999999998</v>
+        <v>7.9777269999999998</v>
       </c>
       <c r="T98">
         <v>1</v>
@@ -10585,10 +11200,10 @@
         <v>980000</v>
       </c>
       <c r="D99">
-        <v>730.79448649999995</v>
+        <v>365.92405100000002</v>
       </c>
       <c r="E99">
-        <v>249.94735750000001</v>
+        <v>208.20697393750001</v>
       </c>
       <c r="F99">
         <v>980</v>
@@ -10603,10 +11218,10 @@
         <v>980000</v>
       </c>
       <c r="R99">
-        <v>700.60708250000005</v>
+        <v>365.22992399999998</v>
       </c>
       <c r="S99">
-        <v>6.0133444999999996</v>
+        <v>7.4889815000000004</v>
       </c>
       <c r="T99">
         <v>1</v>
@@ -10623,10 +11238,10 @@
         <v>990000</v>
       </c>
       <c r="D100">
-        <v>739.07881799999996</v>
+        <v>385.39007600000002</v>
       </c>
       <c r="E100">
-        <v>233.977271</v>
+        <v>215.9734685</v>
       </c>
       <c r="F100">
         <v>990</v>
@@ -10641,10 +11256,10 @@
         <v>990000</v>
       </c>
       <c r="R100">
-        <v>716.81985499999996</v>
+        <v>347.07440500000001</v>
       </c>
       <c r="S100">
-        <v>5.7640589999999996</v>
+        <v>6.9179905000000002</v>
       </c>
       <c r="T100">
         <v>1</v>
@@ -10661,10 +11276,10 @@
         <v>1000000</v>
       </c>
       <c r="D101">
-        <v>723.17941150000001</v>
+        <v>384.301669</v>
       </c>
       <c r="E101">
-        <v>239.0365865</v>
+        <v>209.81691549999999</v>
       </c>
       <c r="F101">
         <v>1000</v>
@@ -10679,481 +11294,13 @@
         <v>1000000</v>
       </c>
       <c r="R101">
-        <v>3312.3306689999999</v>
+        <v>355.13546300000002</v>
       </c>
       <c r="S101">
-        <v>6.8922939999999997</v>
+        <v>7.4722464999999998</v>
       </c>
       <c r="T101">
         <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>3</v>
-      </c>
-      <c r="B102">
-        <v>1010</v>
-      </c>
-      <c r="C102">
-        <v>1010000</v>
-      </c>
-      <c r="D102">
-        <v>736.14194599999996</v>
-      </c>
-      <c r="E102">
-        <v>239.87271799999999</v>
-      </c>
-      <c r="F102">
-        <v>1010</v>
-      </c>
-      <c r="O102">
-        <v>3</v>
-      </c>
-      <c r="P102">
-        <v>1010</v>
-      </c>
-      <c r="Q102">
-        <v>1010000</v>
-      </c>
-      <c r="R102">
-        <v>761.66625099999999</v>
-      </c>
-      <c r="S102">
-        <v>6.8515284999999997</v>
-      </c>
-      <c r="T102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>3</v>
-      </c>
-      <c r="B103">
-        <v>1020</v>
-      </c>
-      <c r="C103">
-        <v>1020000</v>
-      </c>
-      <c r="D103">
-        <v>781.98372300000005</v>
-      </c>
-      <c r="E103">
-        <v>247.646455</v>
-      </c>
-      <c r="F103">
-        <v>1020</v>
-      </c>
-      <c r="O103">
-        <v>3</v>
-      </c>
-      <c r="P103">
-        <v>1020</v>
-      </c>
-      <c r="Q103">
-        <v>1020000</v>
-      </c>
-      <c r="R103">
-        <v>714.91619600000001</v>
-      </c>
-      <c r="S103">
-        <v>7.3965835000000002</v>
-      </c>
-      <c r="T103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>3</v>
-      </c>
-      <c r="B104">
-        <v>1030</v>
-      </c>
-      <c r="C104">
-        <v>1030000</v>
-      </c>
-      <c r="D104">
-        <v>727.13659299999995</v>
-      </c>
-      <c r="E104">
-        <v>249.786935</v>
-      </c>
-      <c r="F104">
-        <v>1030</v>
-      </c>
-      <c r="O104">
-        <v>3</v>
-      </c>
-      <c r="P104">
-        <v>1030</v>
-      </c>
-      <c r="Q104">
-        <v>1030000</v>
-      </c>
-      <c r="R104">
-        <v>734.369822</v>
-      </c>
-      <c r="S104">
-        <v>7.833126</v>
-      </c>
-      <c r="T104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>3</v>
-      </c>
-      <c r="B105">
-        <v>1040</v>
-      </c>
-      <c r="C105">
-        <v>1040000</v>
-      </c>
-      <c r="D105">
-        <v>750.54549499999996</v>
-      </c>
-      <c r="E105">
-        <v>251.714348</v>
-      </c>
-      <c r="F105">
-        <v>1040</v>
-      </c>
-      <c r="O105">
-        <v>3</v>
-      </c>
-      <c r="P105">
-        <v>1040</v>
-      </c>
-      <c r="Q105">
-        <v>1040000</v>
-      </c>
-      <c r="R105">
-        <v>3429.9162695</v>
-      </c>
-      <c r="S105">
-        <v>7.6358974999999996</v>
-      </c>
-      <c r="T105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>3</v>
-      </c>
-      <c r="B106">
-        <v>1050</v>
-      </c>
-      <c r="C106">
-        <v>1050000</v>
-      </c>
-      <c r="D106">
-        <v>756.56675700000005</v>
-      </c>
-      <c r="E106">
-        <v>258.40134899999998</v>
-      </c>
-      <c r="F106">
-        <v>1050</v>
-      </c>
-      <c r="O106">
-        <v>3</v>
-      </c>
-      <c r="P106">
-        <v>1050</v>
-      </c>
-      <c r="Q106">
-        <v>1050000</v>
-      </c>
-      <c r="R106">
-        <v>3416.7802624999999</v>
-      </c>
-      <c r="S106">
-        <v>10.4737885</v>
-      </c>
-      <c r="T106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>3</v>
-      </c>
-      <c r="B107">
-        <v>1060</v>
-      </c>
-      <c r="C107">
-        <v>1060000</v>
-      </c>
-      <c r="D107">
-        <v>756.35779749999995</v>
-      </c>
-      <c r="E107">
-        <v>273.63355050000001</v>
-      </c>
-      <c r="F107">
-        <v>1060</v>
-      </c>
-      <c r="O107">
-        <v>3</v>
-      </c>
-      <c r="P107">
-        <v>1060</v>
-      </c>
-      <c r="Q107">
-        <v>1060000</v>
-      </c>
-      <c r="R107">
-        <v>3500.6984385000001</v>
-      </c>
-      <c r="S107">
-        <v>7.8027715000000004</v>
-      </c>
-      <c r="T107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>3</v>
-      </c>
-      <c r="B108">
-        <v>1070</v>
-      </c>
-      <c r="C108">
-        <v>1070000</v>
-      </c>
-      <c r="D108">
-        <v>776.91634299999998</v>
-      </c>
-      <c r="E108">
-        <v>270.05132350000002</v>
-      </c>
-      <c r="F108">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>3</v>
-      </c>
-      <c r="B109">
-        <v>1080</v>
-      </c>
-      <c r="C109">
-        <v>1080000</v>
-      </c>
-      <c r="D109">
-        <v>790.08417050000003</v>
-      </c>
-      <c r="E109">
-        <v>281.71757450000001</v>
-      </c>
-      <c r="F109">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>3</v>
-      </c>
-      <c r="B110">
-        <v>1090</v>
-      </c>
-      <c r="C110">
-        <v>1090000</v>
-      </c>
-      <c r="D110">
-        <v>809.84265700000003</v>
-      </c>
-      <c r="E110">
-        <v>299.72417300000001</v>
-      </c>
-      <c r="F110">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>3</v>
-      </c>
-      <c r="B111">
-        <v>1100</v>
-      </c>
-      <c r="C111">
-        <v>1100000</v>
-      </c>
-      <c r="D111">
-        <v>12518.034019999999</v>
-      </c>
-      <c r="E111">
-        <v>298.67717599999997</v>
-      </c>
-      <c r="F111">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>3</v>
-      </c>
-      <c r="B112">
-        <v>1110</v>
-      </c>
-      <c r="C112">
-        <v>1110000</v>
-      </c>
-      <c r="D112">
-        <v>3995.9964805</v>
-      </c>
-      <c r="E112">
-        <v>290.36263700000001</v>
-      </c>
-      <c r="F112">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>3</v>
-      </c>
-      <c r="B113">
-        <v>1120</v>
-      </c>
-      <c r="C113">
-        <v>1120000</v>
-      </c>
-      <c r="D113">
-        <v>6673.4068479999996</v>
-      </c>
-      <c r="E113">
-        <v>300.699905</v>
-      </c>
-      <c r="F113">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>3</v>
-      </c>
-      <c r="B114">
-        <v>1130</v>
-      </c>
-      <c r="C114">
-        <v>1130000</v>
-      </c>
-      <c r="D114">
-        <v>7807.1843975000002</v>
-      </c>
-      <c r="E114">
-        <v>323.85013500000002</v>
-      </c>
-      <c r="F114">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>3</v>
-      </c>
-      <c r="B115">
-        <v>1140</v>
-      </c>
-      <c r="C115">
-        <v>1140000</v>
-      </c>
-      <c r="D115">
-        <v>8261.1593224999997</v>
-      </c>
-      <c r="E115">
-        <v>341.77945649999998</v>
-      </c>
-      <c r="F115">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>3</v>
-      </c>
-      <c r="B116">
-        <v>1150</v>
-      </c>
-      <c r="C116">
-        <v>1150000</v>
-      </c>
-      <c r="D116">
-        <v>9353.8973535000005</v>
-      </c>
-      <c r="E116">
-        <v>321.81684849999999</v>
-      </c>
-      <c r="F116">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>3</v>
-      </c>
-      <c r="B117">
-        <v>1160</v>
-      </c>
-      <c r="C117">
-        <v>1160000</v>
-      </c>
-      <c r="D117">
-        <v>8380.3359485000001</v>
-      </c>
-      <c r="E117">
-        <v>6194.2096924999996</v>
-      </c>
-      <c r="F117">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>3</v>
-      </c>
-      <c r="B118">
-        <v>1170</v>
-      </c>
-      <c r="C118">
-        <v>1170000</v>
-      </c>
-      <c r="D118">
-        <v>13422.5471075</v>
-      </c>
-      <c r="E118">
-        <v>363.53105049999999</v>
-      </c>
-      <c r="F118">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>3</v>
-      </c>
-      <c r="B119">
-        <v>1180</v>
-      </c>
-      <c r="C119">
-        <v>1180000</v>
-      </c>
-      <c r="D119">
-        <v>21704.950656000001</v>
-      </c>
-      <c r="E119">
-        <v>6364.091649</v>
-      </c>
-      <c r="F119">
-        <v>1180</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
